--- a/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.267980896187225</v>
+        <v>1.267980896187083</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3250032104611762</v>
+        <v>0.3250032104614178</v>
       </c>
       <c r="E2">
-        <v>0.05651659156866806</v>
+        <v>0.05651659156867694</v>
       </c>
       <c r="F2">
         <v>6.951007250724643</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.085023610401436</v>
+        <v>4.085023610401407</v>
       </c>
       <c r="K2">
-        <v>2.2447934298592</v>
+        <v>2.244793429859214</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.087184546848817</v>
+        <v>1.087184546848846</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2746566281812335</v>
+        <v>0.2746566281814182</v>
       </c>
       <c r="E3">
-        <v>0.05080086570476539</v>
+        <v>0.05080086570469078</v>
       </c>
       <c r="F3">
-        <v>5.893208030317169</v>
+        <v>5.893208030317197</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.472381538263235</v>
+        <v>3.472381538263207</v>
       </c>
       <c r="K3">
-        <v>1.903309045704461</v>
+        <v>1.903309045704418</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9796419361576341</v>
+        <v>0.9796419361578046</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2459035815428479</v>
+        <v>0.2459035815426347</v>
       </c>
       <c r="E4">
-        <v>0.04754838312099352</v>
+        <v>0.04754838312096865</v>
       </c>
       <c r="F4">
-        <v>5.282202481413037</v>
+        <v>5.282202481413009</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3.110821590781214</v>
+        <v>3.110821590781157</v>
       </c>
       <c r="K4">
-        <v>1.702370039950935</v>
+        <v>1.702370039950921</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2346265977977566</v>
+        <v>0.234626597797984</v>
       </c>
       <c r="E5">
-        <v>0.04627091429170171</v>
+        <v>0.04627091429165375</v>
       </c>
       <c r="F5">
-        <v>5.041064460747521</v>
+        <v>5.041064460747549</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.966387687152917</v>
+        <v>2.966387687152931</v>
       </c>
       <c r="K5">
         <v>1.622233057238304</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9294098557696202</v>
+        <v>0.929409855769876</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2327780233232062</v>
+        <v>0.232778023323192</v>
       </c>
       <c r="E6">
-        <v>0.04606128016311217</v>
+        <v>0.0460612801631779</v>
       </c>
       <c r="F6">
         <v>5.001451313793297</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.942560459811929</v>
+        <v>2.942560459811943</v>
       </c>
       <c r="K6">
-        <v>1.60902045885986</v>
+        <v>1.609020458859902</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -608,13 +608,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2457498351567295</v>
+        <v>0.245749835156488</v>
       </c>
       <c r="E7">
-        <v>0.04753097950675667</v>
+        <v>0.04753097950681529</v>
       </c>
       <c r="F7">
-        <v>5.278920767309103</v>
+        <v>5.278920767309074</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3.108862844652279</v>
+        <v>3.108862844652265</v>
       </c>
       <c r="K7">
-        <v>1.70128273785852</v>
+        <v>1.701282737858492</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.204816592086814</v>
+        <v>1.204816592086843</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3071260834739036</v>
+        <v>0.3071260834740599</v>
       </c>
       <c r="E8">
-        <v>0.05448089262539035</v>
+        <v>0.0544808926253566</v>
       </c>
       <c r="F8">
-        <v>6.577063295294494</v>
+        <v>6.57706329529455</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>3.870236522566103</v>
       </c>
       <c r="K8">
-        <v>2.124935337124043</v>
+        <v>2.124935337124015</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.684394140289015</v>
+        <v>1.684394140289271</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.450863379860948</v>
+        <v>0.4508633798607207</v>
       </c>
       <c r="E9">
-        <v>0.0712488405683338</v>
+        <v>0.07124884056834269</v>
       </c>
       <c r="F9">
         <v>9.538143760918217</v>
@@ -705,7 +705,7 @@
         <v>5.525707605240029</v>
       </c>
       <c r="K9">
-        <v>3.052063338225423</v>
+        <v>3.052063338225409</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.077772040581294</v>
+        <v>2.077772040581237</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.583664549614241</v>
+        <v>0.5836645496140704</v>
       </c>
       <c r="E10">
-        <v>0.08801282624455276</v>
+        <v>0.08801282624457052</v>
       </c>
       <c r="F10">
-        <v>12.1934816958597</v>
+        <v>12.19348169585959</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.937401039369917</v>
+        <v>6.937401039369831</v>
       </c>
       <c r="K10">
         <v>3.847534811392734</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.272648573569597</v>
+        <v>2.272648573569654</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6551670191552716</v>
+        <v>0.6551670191552148</v>
       </c>
       <c r="E11">
-        <v>0.09774595411742659</v>
+        <v>0.09774595411747278</v>
       </c>
       <c r="F11">
-        <v>13.59545006104071</v>
+        <v>13.59545006104076</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.660507856111707</v>
+        <v>7.660507856111678</v>
       </c>
       <c r="K11">
-        <v>4.256165160002894</v>
+        <v>4.256165160002922</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6846205840662662</v>
+        <v>0.6846205840656694</v>
       </c>
       <c r="E12">
-        <v>0.1019232515978707</v>
+        <v>0.1019232515978743</v>
       </c>
       <c r="F12">
-        <v>14.16768901067348</v>
+        <v>14.16768901067331</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.951753759079764</v>
+        <v>7.951753759079736</v>
       </c>
       <c r="K12">
-        <v>4.420896367288464</v>
+        <v>4.420896367288435</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -836,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6781534524251924</v>
+        <v>0.6781534524250219</v>
       </c>
       <c r="E13">
-        <v>0.1009971722864798</v>
+        <v>0.1009971722864584</v>
       </c>
       <c r="F13">
-        <v>14.04229955075652</v>
+        <v>14.04229955075641</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.888120657504516</v>
+        <v>7.88812065750443</v>
       </c>
       <c r="K13">
         <v>4.384899323280791</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6575362577394799</v>
+        <v>0.6575362577394515</v>
       </c>
       <c r="E14">
-        <v>0.09807819094727677</v>
+        <v>0.09807819094734604</v>
       </c>
       <c r="F14">
-        <v>13.64159242050613</v>
+        <v>13.64159242050607</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.684073305087878</v>
+        <v>7.684073305087907</v>
       </c>
       <c r="K14">
         <v>4.269491384799949</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.246277662891572</v>
+        <v>2.246277662891345</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6452487448948432</v>
+        <v>0.6452487448945874</v>
       </c>
       <c r="E15">
-        <v>0.09636214765353301</v>
+        <v>0.09636214765359874</v>
       </c>
       <c r="F15">
-        <v>13.40207179879786</v>
+        <v>13.40207179879775</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.561590041811286</v>
+        <v>7.561590041811314</v>
       </c>
       <c r="K15">
-        <v>4.20023283669147</v>
+        <v>4.200232836691441</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.065431148186462</v>
+        <v>2.065431148186377</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5792717140133732</v>
+        <v>0.5792717140136006</v>
       </c>
       <c r="E16">
-        <v>0.08743250952236359</v>
+        <v>0.08743250952245063</v>
       </c>
       <c r="F16">
-        <v>12.10674342349284</v>
+        <v>12.1067434234929</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.892193372639355</v>
+        <v>6.892193372639383</v>
       </c>
       <c r="K16">
-        <v>3.822009196264489</v>
+        <v>3.822009196264503</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.959131116739258</v>
+        <v>1.959131116739115</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5420660186527471</v>
+        <v>0.5420660186528892</v>
       </c>
       <c r="E17">
-        <v>0.0825933350203929</v>
+        <v>0.08259333502043198</v>
       </c>
       <c r="F17">
-        <v>11.36919092928241</v>
+        <v>11.36919092928247</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.505439105235951</v>
+        <v>6.505439105235979</v>
       </c>
       <c r="K17">
         <v>3.603759477709175</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.899408326320213</v>
+        <v>1.899408326320184</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5216465261294161</v>
+        <v>0.5216465261293877</v>
       </c>
       <c r="E18">
-        <v>0.07999257570348384</v>
+        <v>0.0799925757034714</v>
       </c>
       <c r="F18">
-        <v>10.96214339230826</v>
+        <v>10.96214339230835</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.290134629069257</v>
+        <v>6.290134629069229</v>
       </c>
       <c r="K18">
-        <v>3.482365063306517</v>
+        <v>3.48236506330656</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.879408052673057</v>
+        <v>1.879408052673085</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5148840282242872</v>
+        <v>0.5148840282240599</v>
       </c>
       <c r="E19">
-        <v>0.07913944114256566</v>
+        <v>0.07913944114254789</v>
       </c>
       <c r="F19">
-        <v>10.82697720090306</v>
+        <v>10.82697720090314</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.218336455898765</v>
+        <v>6.218336455898793</v>
       </c>
       <c r="K19">
-        <v>3.441901300842176</v>
+        <v>3.441901300842204</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.970294510401772</v>
+        <v>1.970294510401857</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0.5459208952343602</v>
       </c>
       <c r="E20">
-        <v>0.08308858796620555</v>
+        <v>0.08308858796625174</v>
       </c>
       <c r="F20">
-        <v>11.44585340798017</v>
+        <v>11.44585340798031</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.545838421821202</v>
+        <v>6.545838421821259</v>
       </c>
       <c r="K20">
-        <v>3.62654636137232</v>
+        <v>3.626546361372334</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.294693275777547</v>
+        <v>2.294693275777718</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6635187673907694</v>
+        <v>0.66351876739094</v>
       </c>
       <c r="E21">
-        <v>0.09892002582410697</v>
+        <v>0.09892002582409809</v>
       </c>
       <c r="F21">
-        <v>13.75801812983997</v>
+        <v>13.75801812984002</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>7.743469590989349</v>
       </c>
       <c r="K21">
-        <v>4.303082043346251</v>
+        <v>4.303082043346166</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.52695587254226</v>
+        <v>2.526955872542146</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7550604973015709</v>
+        <v>0.755060497302054</v>
       </c>
       <c r="E22">
-        <v>0.1123512392746573</v>
+        <v>0.11235123927462</v>
       </c>
       <c r="F22">
-        <v>15.52424546355331</v>
+        <v>15.5242454635532</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.63384244499116</v>
+        <v>8.633842444991188</v>
       </c>
       <c r="K22">
-        <v>4.806887077021486</v>
+        <v>4.806887077021401</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.400619606951011</v>
+        <v>2.400619606950897</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7044425692113521</v>
+        <v>0.7044425692115794</v>
       </c>
       <c r="E23">
-        <v>0.1047936573376287</v>
+        <v>0.1047936573376269</v>
       </c>
       <c r="F23">
         <v>14.55111978145186</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.145709167601439</v>
+        <v>8.145709167601495</v>
       </c>
       <c r="K23">
-        <v>4.530632721448029</v>
+        <v>4.530632721448001</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.9652432756059</v>
+        <v>1.965243275605985</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.544175133439353</v>
+        <v>0.5441751334393246</v>
       </c>
       <c r="E24">
-        <v>0.08286413122013059</v>
+        <v>0.08286413122011282</v>
       </c>
       <c r="F24">
-        <v>11.41114228671307</v>
+        <v>11.41114228671321</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>6.52755232230308</v>
       </c>
       <c r="K24">
-        <v>3.616231915909196</v>
+        <v>3.616231915909225</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1292,13 +1292,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4084239374354013</v>
+        <v>0.4084239374352308</v>
       </c>
       <c r="E25">
-        <v>0.06618298391096111</v>
+        <v>0.06618298391096822</v>
       </c>
       <c r="F25">
-        <v>8.674123445885641</v>
+        <v>8.674123445885584</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.052626377171464</v>
+        <v>5.052626377171407</v>
       </c>
       <c r="K25">
-        <v>2.786391899132809</v>
+        <v>2.786391899132767</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.267980896187083</v>
+        <v>1.267980896187225</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3250032104614178</v>
+        <v>0.3250032104611762</v>
       </c>
       <c r="E2">
-        <v>0.05651659156867694</v>
+        <v>0.05651659156866806</v>
       </c>
       <c r="F2">
         <v>6.951007250724643</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.085023610401407</v>
+        <v>4.085023610401436</v>
       </c>
       <c r="K2">
-        <v>2.244793429859214</v>
+        <v>2.2447934298592</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.087184546848846</v>
+        <v>1.087184546848817</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2746566281814182</v>
+        <v>0.2746566281812335</v>
       </c>
       <c r="E3">
-        <v>0.05080086570469078</v>
+        <v>0.05080086570476539</v>
       </c>
       <c r="F3">
-        <v>5.893208030317197</v>
+        <v>5.893208030317169</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.472381538263207</v>
+        <v>3.472381538263235</v>
       </c>
       <c r="K3">
-        <v>1.903309045704418</v>
+        <v>1.903309045704461</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9796419361578046</v>
+        <v>0.9796419361576341</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2459035815426347</v>
+        <v>0.2459035815428479</v>
       </c>
       <c r="E4">
-        <v>0.04754838312096865</v>
+        <v>0.04754838312099352</v>
       </c>
       <c r="F4">
-        <v>5.282202481413009</v>
+        <v>5.282202481413037</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3.110821590781157</v>
+        <v>3.110821590781214</v>
       </c>
       <c r="K4">
-        <v>1.702370039950921</v>
+        <v>1.702370039950935</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.234626597797984</v>
+        <v>0.2346265977977566</v>
       </c>
       <c r="E5">
-        <v>0.04627091429165375</v>
+        <v>0.04627091429170171</v>
       </c>
       <c r="F5">
-        <v>5.041064460747549</v>
+        <v>5.041064460747521</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.966387687152931</v>
+        <v>2.966387687152917</v>
       </c>
       <c r="K5">
         <v>1.622233057238304</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.929409855769876</v>
+        <v>0.9294098557696202</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.232778023323192</v>
+        <v>0.2327780233232062</v>
       </c>
       <c r="E6">
-        <v>0.0460612801631779</v>
+        <v>0.04606128016311217</v>
       </c>
       <c r="F6">
         <v>5.001451313793297</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.942560459811943</v>
+        <v>2.942560459811929</v>
       </c>
       <c r="K6">
-        <v>1.609020458859902</v>
+        <v>1.60902045885986</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -608,13 +608,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.245749835156488</v>
+        <v>0.2457498351567295</v>
       </c>
       <c r="E7">
-        <v>0.04753097950681529</v>
+        <v>0.04753097950675667</v>
       </c>
       <c r="F7">
-        <v>5.278920767309074</v>
+        <v>5.278920767309103</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3.108862844652265</v>
+        <v>3.108862844652279</v>
       </c>
       <c r="K7">
-        <v>1.701282737858492</v>
+        <v>1.70128273785852</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.204816592086843</v>
+        <v>1.204816592086814</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3071260834740599</v>
+        <v>0.3071260834739036</v>
       </c>
       <c r="E8">
-        <v>0.0544808926253566</v>
+        <v>0.05448089262539035</v>
       </c>
       <c r="F8">
-        <v>6.57706329529455</v>
+        <v>6.577063295294494</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>3.870236522566103</v>
       </c>
       <c r="K8">
-        <v>2.124935337124015</v>
+        <v>2.124935337124043</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.684394140289271</v>
+        <v>1.684394140289015</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4508633798607207</v>
+        <v>0.450863379860948</v>
       </c>
       <c r="E9">
-        <v>0.07124884056834269</v>
+        <v>0.0712488405683338</v>
       </c>
       <c r="F9">
         <v>9.538143760918217</v>
@@ -705,7 +705,7 @@
         <v>5.525707605240029</v>
       </c>
       <c r="K9">
-        <v>3.052063338225409</v>
+        <v>3.052063338225423</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.077772040581237</v>
+        <v>2.077772040581294</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5836645496140704</v>
+        <v>0.583664549614241</v>
       </c>
       <c r="E10">
-        <v>0.08801282624457052</v>
+        <v>0.08801282624455276</v>
       </c>
       <c r="F10">
-        <v>12.19348169585959</v>
+        <v>12.1934816958597</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.937401039369831</v>
+        <v>6.937401039369917</v>
       </c>
       <c r="K10">
         <v>3.847534811392734</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.272648573569654</v>
+        <v>2.272648573569597</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6551670191552148</v>
+        <v>0.6551670191552716</v>
       </c>
       <c r="E11">
-        <v>0.09774595411747278</v>
+        <v>0.09774595411742659</v>
       </c>
       <c r="F11">
-        <v>13.59545006104076</v>
+        <v>13.59545006104071</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.660507856111678</v>
+        <v>7.660507856111707</v>
       </c>
       <c r="K11">
-        <v>4.256165160002922</v>
+        <v>4.256165160002894</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6846205840656694</v>
+        <v>0.6846205840662662</v>
       </c>
       <c r="E12">
-        <v>0.1019232515978743</v>
+        <v>0.1019232515978707</v>
       </c>
       <c r="F12">
-        <v>14.16768901067331</v>
+        <v>14.16768901067348</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.951753759079736</v>
+        <v>7.951753759079764</v>
       </c>
       <c r="K12">
-        <v>4.420896367288435</v>
+        <v>4.420896367288464</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -836,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6781534524250219</v>
+        <v>0.6781534524251924</v>
       </c>
       <c r="E13">
-        <v>0.1009971722864584</v>
+        <v>0.1009971722864798</v>
       </c>
       <c r="F13">
-        <v>14.04229955075641</v>
+        <v>14.04229955075652</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.88812065750443</v>
+        <v>7.888120657504516</v>
       </c>
       <c r="K13">
         <v>4.384899323280791</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6575362577394515</v>
+        <v>0.6575362577394799</v>
       </c>
       <c r="E14">
-        <v>0.09807819094734604</v>
+        <v>0.09807819094727677</v>
       </c>
       <c r="F14">
-        <v>13.64159242050607</v>
+        <v>13.64159242050613</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.684073305087907</v>
+        <v>7.684073305087878</v>
       </c>
       <c r="K14">
         <v>4.269491384799949</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.246277662891345</v>
+        <v>2.246277662891572</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6452487448945874</v>
+        <v>0.6452487448948432</v>
       </c>
       <c r="E15">
-        <v>0.09636214765359874</v>
+        <v>0.09636214765353301</v>
       </c>
       <c r="F15">
-        <v>13.40207179879775</v>
+        <v>13.40207179879786</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.561590041811314</v>
+        <v>7.561590041811286</v>
       </c>
       <c r="K15">
-        <v>4.200232836691441</v>
+        <v>4.20023283669147</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.065431148186377</v>
+        <v>2.065431148186462</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5792717140136006</v>
+        <v>0.5792717140133732</v>
       </c>
       <c r="E16">
-        <v>0.08743250952245063</v>
+        <v>0.08743250952236359</v>
       </c>
       <c r="F16">
-        <v>12.1067434234929</v>
+        <v>12.10674342349284</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.892193372639383</v>
+        <v>6.892193372639355</v>
       </c>
       <c r="K16">
-        <v>3.822009196264503</v>
+        <v>3.822009196264489</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.959131116739115</v>
+        <v>1.959131116739258</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5420660186528892</v>
+        <v>0.5420660186527471</v>
       </c>
       <c r="E17">
-        <v>0.08259333502043198</v>
+        <v>0.0825933350203929</v>
       </c>
       <c r="F17">
-        <v>11.36919092928247</v>
+        <v>11.36919092928241</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.505439105235979</v>
+        <v>6.505439105235951</v>
       </c>
       <c r="K17">
         <v>3.603759477709175</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.899408326320184</v>
+        <v>1.899408326320213</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5216465261293877</v>
+        <v>0.5216465261294161</v>
       </c>
       <c r="E18">
-        <v>0.0799925757034714</v>
+        <v>0.07999257570348384</v>
       </c>
       <c r="F18">
-        <v>10.96214339230835</v>
+        <v>10.96214339230826</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.290134629069229</v>
+        <v>6.290134629069257</v>
       </c>
       <c r="K18">
-        <v>3.48236506330656</v>
+        <v>3.482365063306517</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.879408052673085</v>
+        <v>1.879408052673057</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5148840282240599</v>
+        <v>0.5148840282242872</v>
       </c>
       <c r="E19">
-        <v>0.07913944114254789</v>
+        <v>0.07913944114256566</v>
       </c>
       <c r="F19">
-        <v>10.82697720090314</v>
+        <v>10.82697720090306</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.218336455898793</v>
+        <v>6.218336455898765</v>
       </c>
       <c r="K19">
-        <v>3.441901300842204</v>
+        <v>3.441901300842176</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.970294510401857</v>
+        <v>1.970294510401772</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0.5459208952343602</v>
       </c>
       <c r="E20">
-        <v>0.08308858796625174</v>
+        <v>0.08308858796620555</v>
       </c>
       <c r="F20">
-        <v>11.44585340798031</v>
+        <v>11.44585340798017</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.545838421821259</v>
+        <v>6.545838421821202</v>
       </c>
       <c r="K20">
-        <v>3.626546361372334</v>
+        <v>3.62654636137232</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.294693275777718</v>
+        <v>2.294693275777547</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.66351876739094</v>
+        <v>0.6635187673907694</v>
       </c>
       <c r="E21">
-        <v>0.09892002582409809</v>
+        <v>0.09892002582410697</v>
       </c>
       <c r="F21">
-        <v>13.75801812984002</v>
+        <v>13.75801812983997</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>7.743469590989349</v>
       </c>
       <c r="K21">
-        <v>4.303082043346166</v>
+        <v>4.303082043346251</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.526955872542146</v>
+        <v>2.52695587254226</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.755060497302054</v>
+        <v>0.7550604973015709</v>
       </c>
       <c r="E22">
-        <v>0.11235123927462</v>
+        <v>0.1123512392746573</v>
       </c>
       <c r="F22">
-        <v>15.5242454635532</v>
+        <v>15.52424546355331</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.633842444991188</v>
+        <v>8.63384244499116</v>
       </c>
       <c r="K22">
-        <v>4.806887077021401</v>
+        <v>4.806887077021486</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.400619606950897</v>
+        <v>2.400619606951011</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7044425692115794</v>
+        <v>0.7044425692113521</v>
       </c>
       <c r="E23">
-        <v>0.1047936573376269</v>
+        <v>0.1047936573376287</v>
       </c>
       <c r="F23">
         <v>14.55111978145186</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.145709167601495</v>
+        <v>8.145709167601439</v>
       </c>
       <c r="K23">
-        <v>4.530632721448001</v>
+        <v>4.530632721448029</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.965243275605985</v>
+        <v>1.9652432756059</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5441751334393246</v>
+        <v>0.544175133439353</v>
       </c>
       <c r="E24">
-        <v>0.08286413122011282</v>
+        <v>0.08286413122013059</v>
       </c>
       <c r="F24">
-        <v>11.41114228671321</v>
+        <v>11.41114228671307</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>6.52755232230308</v>
       </c>
       <c r="K24">
-        <v>3.616231915909225</v>
+        <v>3.616231915909196</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1292,13 +1292,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4084239374352308</v>
+        <v>0.4084239374354013</v>
       </c>
       <c r="E25">
-        <v>0.06618298391096822</v>
+        <v>0.06618298391096111</v>
       </c>
       <c r="F25">
-        <v>8.674123445885584</v>
+        <v>8.674123445885641</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.052626377171407</v>
+        <v>5.052626377171464</v>
       </c>
       <c r="K25">
-        <v>2.786391899132767</v>
+        <v>2.786391899132809</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.267980896187225</v>
+        <v>1.261897243150997</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3250032104611762</v>
+        <v>0.3229988521007527</v>
       </c>
       <c r="E2">
-        <v>0.05651659156866806</v>
+        <v>0.05012009083210778</v>
       </c>
       <c r="F2">
-        <v>6.951007250724643</v>
+        <v>6.89832779480605</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000693513886004305</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.085023610401436</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.2447934298592</v>
+        <v>4.023046189906069</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2.216742378875423</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.087184546848817</v>
+        <v>1.082515498107227</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2746566281812335</v>
+        <v>0.2740030696354268</v>
       </c>
       <c r="E3">
-        <v>0.05080086570476539</v>
+        <v>0.04474528255077637</v>
       </c>
       <c r="F3">
-        <v>5.893208030317169</v>
+        <v>5.859920112988561</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007130474782638942</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.472381538263235</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.903309045704461</v>
+        <v>3.419411471094321</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.879696512170966</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9796419361576341</v>
+        <v>0.9757944777016405</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2459035815428479</v>
+        <v>0.246033020727694</v>
       </c>
       <c r="E4">
-        <v>0.04754838312099352</v>
+        <v>0.04168482923041417</v>
       </c>
       <c r="F4">
-        <v>5.282202481413037</v>
+        <v>5.260048769326744</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007250344390549053</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3.110821590781214</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.702370039950935</v>
+        <v>3.063079915027714</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.681311701465461</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9365297116443969</v>
+        <v>0.9330087338734643</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2346265977977566</v>
+        <v>0.2350668689562951</v>
       </c>
       <c r="E5">
-        <v>0.04627091429170171</v>
+        <v>0.04048237936777443</v>
       </c>
       <c r="F5">
-        <v>5.041064460747521</v>
+        <v>5.02330804863297</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007299342004811749</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.966387687152917</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.622233057238304</v>
+        <v>2.920723712407906</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.602184845331564</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9294098557696202</v>
+        <v>0.9259426716115229</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2327780233232062</v>
+        <v>0.2332694928804955</v>
       </c>
       <c r="E6">
-        <v>0.04606128016311217</v>
+        <v>0.04028503363410785</v>
       </c>
       <c r="F6">
-        <v>5.001451313793297</v>
+        <v>4.984417928362603</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007307491329836426</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.942560459811929</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.60902045885986</v>
+        <v>2.897238847096304</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.589138418383016</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9790578155176775</v>
+        <v>0.9752147898715862</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2457498351567295</v>
+        <v>0.2458834958614347</v>
       </c>
       <c r="E7">
-        <v>0.04753097950675667</v>
+        <v>0.04166844919382839</v>
       </c>
       <c r="F7">
-        <v>5.278920767309103</v>
+        <v>5.256826864517421</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007251004387403004</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3.108862844652279</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.70128273785852</v>
+        <v>3.061149377839968</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.680238132922938</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.204816592086814</v>
+        <v>1.199232886562982</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3071260834739036</v>
+        <v>0.3055994998290714</v>
       </c>
       <c r="E8">
-        <v>0.05448089262539035</v>
+        <v>0.04820631104908912</v>
       </c>
       <c r="F8">
-        <v>6.577063295294494</v>
+        <v>6.531268242027267</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007002616491247338</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3.870236522566103</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2.124935337124043</v>
+        <v>3.811443715484558</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>2.098458806118543</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.684394140289015</v>
+        <v>1.674787159514864</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.450863379860948</v>
+        <v>0.4454815296384709</v>
       </c>
       <c r="E9">
-        <v>0.0712488405683338</v>
+        <v>0.06395282285647674</v>
       </c>
       <c r="F9">
-        <v>9.538143760918217</v>
+        <v>9.436060568297393</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006504993204188991</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.525707605240029</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>3.052063338225423</v>
+        <v>5.441215247068214</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>3.012737673038558</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.077772040581294</v>
+        <v>2.064257402268794</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.583664549614241</v>
+        <v>0.5745210942936296</v>
       </c>
       <c r="E10">
-        <v>0.08801282624455276</v>
+        <v>0.07964821326233462</v>
       </c>
       <c r="F10">
-        <v>12.1934816958597</v>
+        <v>12.03504460261041</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006112518413062559</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.937401039369917</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>3.847534811392734</v>
+        <v>6.827722640979118</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3.795359281294239</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.272648573569597</v>
+        <v>2.256859658127951</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6551670191552716</v>
+        <v>0.6438300860965001</v>
       </c>
       <c r="E11">
-        <v>0.09774595411742659</v>
+        <v>0.08873112950166551</v>
       </c>
       <c r="F11">
-        <v>13.59545006104071</v>
+        <v>13.40360640047953</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005920117866966557</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.660507856111707</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>4.256165160002894</v>
+        <v>7.536046930096404</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>4.196360785260367</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.349743416669071</v>
+        <v>2.332968487967776</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6846205840662662</v>
+        <v>0.6723321981727111</v>
       </c>
       <c r="E12">
-        <v>0.1019232515978707</v>
+        <v>0.09262097390727853</v>
       </c>
       <c r="F12">
-        <v>14.16768901067348</v>
+        <v>13.96124609631778</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005844079909831807</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.951753759079764</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>4.420896367288464</v>
+        <v>7.820854795483172</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>4.357753716417989</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.332970198360101</v>
+        <v>2.316414563980857</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6781534524251924</v>
+        <v>0.666076689868305</v>
       </c>
       <c r="E13">
-        <v>0.1009971722864798</v>
+        <v>0.09175909735770738</v>
       </c>
       <c r="F13">
-        <v>14.04229955075652</v>
+        <v>13.83910916229098</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005860624536151438</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.888120657504516</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>4.384899323280791</v>
+        <v>7.758655053792808</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>4.322500648609065</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.278917163995686</v>
+        <v>2.263050106959668</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6575362577394799</v>
+        <v>0.6461239293271603</v>
       </c>
       <c r="E14">
-        <v>0.09807819094727677</v>
+        <v>0.08904070206040338</v>
       </c>
       <c r="F14">
-        <v>13.64159242050613</v>
+        <v>13.44859416658733</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005913935339898705</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.684073305087878</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>4.269491384799949</v>
+        <v>7.559102802444926</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>4.209423103772338</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.246277662891572</v>
+        <v>2.230813759400149</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6452487448948432</v>
+        <v>0.6342253849329893</v>
       </c>
       <c r="E15">
-        <v>0.09636214765353301</v>
+        <v>0.08744136866800467</v>
       </c>
       <c r="F15">
-        <v>13.40207179879786</v>
+        <v>13.21502581502835</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005946128225900253</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.561590041811286</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>4.20023283669147</v>
+        <v>7.439247398034269</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>4.14152488636114</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.065431148186462</v>
+        <v>2.052051502987581</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5792717140133732</v>
+        <v>0.5702583866853388</v>
       </c>
       <c r="E16">
-        <v>0.08743250952236359</v>
+        <v>0.07910588697068555</v>
       </c>
       <c r="F16">
-        <v>12.10674342349284</v>
+        <v>11.95027643224165</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006124726554267126</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.892193372639355</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>3.822009196264489</v>
+        <v>6.7833894690352</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>3.770283195304174</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.959131116739258</v>
+        <v>1.946876440734428</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5420660186527471</v>
+        <v>0.5341367063824976</v>
       </c>
       <c r="E17">
-        <v>0.0825933350203929</v>
+        <v>0.07458047501832432</v>
       </c>
       <c r="F17">
-        <v>11.36919092928241</v>
+        <v>11.22908097195847</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006230084299985172</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.505439105235951</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>3.603759477709175</v>
+        <v>6.403910165031931</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>3.555764521551708</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.899408326320213</v>
+        <v>1.887758491949455</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5216465261294161</v>
+        <v>0.5142996872646677</v>
       </c>
       <c r="E18">
-        <v>0.07999257570348384</v>
+        <v>0.0721462389461287</v>
       </c>
       <c r="F18">
-        <v>10.96214339230826</v>
+        <v>10.83078083178063</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.000628947461539864</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.290134629069257</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>3.482365063306517</v>
+        <v>6.192507876771828</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>3.436364665865639</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.879408052673057</v>
+        <v>1.867956785328715</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5148840282242872</v>
+        <v>0.5077283522209655</v>
       </c>
       <c r="E19">
-        <v>0.07913944114256566</v>
+        <v>0.0713474290349172</v>
       </c>
       <c r="F19">
-        <v>10.82697720090306</v>
+        <v>10.69847888061338</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006309401925186364</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.218336455898765</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>3.441901300842176</v>
+        <v>6.121989400570584</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>3.39655392093519</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.970294510401772</v>
+        <v>1.957924708877727</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5459208952343602</v>
+        <v>0.5378806853303502</v>
       </c>
       <c r="E20">
-        <v>0.08308858796620555</v>
+        <v>0.07504385635806443</v>
       </c>
       <c r="F20">
-        <v>11.44585340798017</v>
+        <v>11.30407465993775</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006219000445226795</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.545838421821202</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>3.62654636137232</v>
+        <v>6.443566016878975</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>3.578170842512463</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.294693275777547</v>
+        <v>2.27862801808493</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6635187673907694</v>
+        <v>0.651915197653949</v>
       </c>
       <c r="E21">
-        <v>0.09892002582410697</v>
+        <v>0.08982495935151924</v>
       </c>
       <c r="F21">
-        <v>13.75801812983997</v>
+        <v>13.56208944394638</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005898376090394529</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.743469590989349</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>4.303082043346251</v>
+        <v>7.617206088985654</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>4.242343872619443</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.52695587254226</v>
+        <v>2.507675733023973</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7550604973015709</v>
+        <v>0.7403542642987304</v>
       </c>
       <c r="E22">
-        <v>0.1123512392746573</v>
+        <v>0.1023052914322911</v>
       </c>
       <c r="F22">
-        <v>15.52424546355331</v>
+        <v>15.28044005087804</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005669068640261274</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.63384244499116</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>4.806887077021486</v>
+        <v>8.486508954669432</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>4.735187219927468</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.400619606951011</v>
+        <v>2.383162063400164</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7044425692113521</v>
+        <v>0.6914954063876735</v>
       </c>
       <c r="E23">
-        <v>0.1047936573376287</v>
+        <v>0.09529057139723562</v>
       </c>
       <c r="F23">
-        <v>14.55111978145186</v>
+        <v>14.33453296204829</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005793883979173643</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.145709167601439</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>4.530632721448029</v>
+        <v>8.01034299873146</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>4.465168816138316</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.9652432756059</v>
+        <v>1.952925649658368</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.544175133439353</v>
+        <v>0.536185184131341</v>
       </c>
       <c r="E24">
-        <v>0.08286413122013059</v>
+        <v>0.07483385087922656</v>
       </c>
       <c r="F24">
-        <v>11.41114228671307</v>
+        <v>11.27011999333502</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006224015057557746</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.52755232230308</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>3.616231915909196</v>
+        <v>6.425616888882047</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>3.568028906441754</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.549159652934776</v>
+        <v>1.54074890451173</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4084239374354013</v>
+        <v>0.4041906753795672</v>
       </c>
       <c r="E25">
-        <v>0.06618298391096111</v>
+        <v>0.05919985694349528</v>
       </c>
       <c r="F25">
-        <v>8.674123445885641</v>
+        <v>8.588979108188084</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006642417936584162</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,12 +1382,15 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.052626377171464</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>2.786391899132809</v>
+        <v>4.97579536489377</v>
       </c>
       <c r="L25">
+        <v>2.750928679337449</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.261897243150997</v>
+        <v>0.2761521748415277</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3229988521007527</v>
+        <v>1.415816999083148</v>
       </c>
       <c r="E2">
-        <v>0.05012009083210778</v>
+        <v>0.8463949172655063</v>
       </c>
       <c r="F2">
-        <v>6.89832779480605</v>
+        <v>19.06031633528733</v>
       </c>
       <c r="G2">
-        <v>0.000693513886004305</v>
+        <v>0.0005030481713439973</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.023046189906069</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.216742378875423</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>10.07381547637203</v>
+      </c>
+      <c r="N2">
+        <v>0.7746072050888131</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.082515498107227</v>
+        <v>0.2404272840827133</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2740030696354268</v>
+        <v>1.086029913878434</v>
       </c>
       <c r="E3">
-        <v>0.04474528255077637</v>
+        <v>0.6737989699514344</v>
       </c>
       <c r="F3">
-        <v>5.859920112988561</v>
+        <v>14.77089785212752</v>
       </c>
       <c r="G3">
-        <v>0.0007130474782638942</v>
+        <v>0.0005575638561941853</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.419411471094321</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.879696512170966</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>7.997546928059108</v>
+      </c>
+      <c r="N3">
+        <v>0.8186369867793246</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9757944777016405</v>
+        <v>0.2189362327085007</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.246033020727694</v>
+        <v>0.9278951358758718</v>
       </c>
       <c r="E4">
-        <v>0.04168482923041417</v>
+        <v>0.5885297502110518</v>
       </c>
       <c r="F4">
-        <v>5.260048769326744</v>
+        <v>12.68885058895461</v>
       </c>
       <c r="G4">
-        <v>0.0007250344390549053</v>
+        <v>0.0005863417917786272</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.063079915027714</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.681311701465461</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>6.950978241649693</v>
+      </c>
+      <c r="N4">
+        <v>0.8405577133435287</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9330087338734643</v>
+        <v>0.2102570413508573</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2350668689562951</v>
+        <v>0.8697536448847245</v>
       </c>
       <c r="E5">
-        <v>0.04048237936777443</v>
+        <v>0.5566009441460906</v>
       </c>
       <c r="F5">
-        <v>5.02330804863297</v>
+        <v>11.91927747034936</v>
       </c>
       <c r="G5">
-        <v>0.0007299342004811749</v>
+        <v>0.0005974567384937199</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.920723712407906</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.602184845331564</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6.557119470847141</v>
+      </c>
+      <c r="N5">
+        <v>0.8489271989554084</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9259426716115229</v>
+        <v>0.2088199883167761</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2332694928804955</v>
+        <v>0.8603992987200968</v>
       </c>
       <c r="E6">
-        <v>0.04028503363410785</v>
+        <v>0.5514308798470609</v>
       </c>
       <c r="F6">
-        <v>4.984417928362603</v>
+        <v>11.79525718126942</v>
       </c>
       <c r="G6">
-        <v>0.0007307491329836426</v>
+        <v>0.0005992748349588073</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.897238847096304</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.589138418383016</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6.493275587352002</v>
+      </c>
+      <c r="N6">
+        <v>0.850294635418976</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9752147898715862</v>
+        <v>0.218818893698014</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2458834958614347</v>
+        <v>0.9270894030520367</v>
       </c>
       <c r="E7">
-        <v>0.04166844919382839</v>
+        <v>0.5880896032038194</v>
       </c>
       <c r="F7">
-        <v>5.256826864517421</v>
+        <v>12.6782006702212</v>
       </c>
       <c r="G7">
-        <v>0.0007251004387403004</v>
+        <v>0.0005864937143087611</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.061149377839968</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1.680238132922938</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6.945554440141933</v>
+      </c>
+      <c r="N7">
+        <v>0.840672300159909</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.199232886562982</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3055994998290714</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E8">
-        <v>0.04820631104908912</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F8">
-        <v>6.531268242027267</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G8">
-        <v>0.0007002616491247338</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.811443715484558</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>2.098458806118543</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N8">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.674787159514864</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4454815296384709</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E9">
-        <v>0.06395282285647674</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F9">
-        <v>9.436060568297393</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G9">
-        <v>0.0006504993204188991</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>5.441215247068214</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>3.012737673038558</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N9">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.064257402268794</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5745210942936296</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E10">
-        <v>0.07964821326233462</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F10">
-        <v>12.03504460261041</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G10">
-        <v>0.0006112518413062559</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.827722640979118</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>3.795359281294239</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N10">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.256859658127951</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6438300860965001</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E11">
-        <v>0.08873112950166551</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F11">
-        <v>13.40360640047953</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G11">
-        <v>0.0005920117866966557</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7.536046930096404</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>4.196360785260367</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N11">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.332968487967776</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6723321981727111</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E12">
-        <v>0.09262097390727853</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F12">
-        <v>13.96124609631778</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G12">
-        <v>0.0005844079909831807</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>7.820854795483172</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>4.357753716417989</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N12">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.316414563980857</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.666076689868305</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E13">
-        <v>0.09175909735770738</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F13">
-        <v>13.83910916229098</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G13">
-        <v>0.0005860624536151438</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.758655053792808</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>4.322500648609065</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N13">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.263050106959668</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6461239293271603</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E14">
-        <v>0.08904070206040338</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F14">
-        <v>13.44859416658733</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G14">
-        <v>0.0005913935339898705</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>7.559102802444926</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>4.209423103772338</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N14">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.230813759400149</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6342253849329893</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E15">
-        <v>0.08744136866800467</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F15">
-        <v>13.21502581502835</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G15">
-        <v>0.0005946128225900253</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>7.439247398034269</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>4.14152488636114</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N15">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.052051502987581</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5702583866853388</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E16">
-        <v>0.07910588697068555</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F16">
-        <v>11.95027643224165</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G16">
-        <v>0.0006124726554267126</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>6.7833894690352</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3.770283195304174</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N16">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.946876440734428</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5341367063824976</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E17">
-        <v>0.07458047501832432</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F17">
-        <v>11.22908097195847</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G17">
-        <v>0.0006230084299985172</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>6.403910165031931</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>3.555764521551708</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N17">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.887758491949455</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5142996872646677</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E18">
-        <v>0.0721462389461287</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F18">
-        <v>10.83078083178063</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G18">
-        <v>0.000628947461539864</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.192507876771828</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>3.436364665865639</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N18">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.867956785328715</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5077283522209655</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E19">
-        <v>0.0713474290349172</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F19">
-        <v>10.69847888061338</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G19">
-        <v>0.0006309401925186364</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.121989400570584</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>3.39655392093519</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N19">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.957924708877727</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5378806853303502</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E20">
-        <v>0.07504385635806443</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F20">
-        <v>11.30407465993775</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G20">
-        <v>0.0006219000445226795</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6.443566016878975</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>3.578170842512463</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N20">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.27862801808493</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.651915197653949</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E21">
-        <v>0.08982495935151924</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F21">
-        <v>13.56208944394638</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G21">
-        <v>0.0005898376090394529</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>7.617206088985654</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>4.242343872619443</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N21">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.507675733023973</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7403542642987304</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E22">
-        <v>0.1023052914322911</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F22">
-        <v>15.28044005087804</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G22">
-        <v>0.0005669068640261274</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8.486508954669432</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>4.735187219927468</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N22">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.383162063400164</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6914954063876735</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E23">
-        <v>0.09529057139723562</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F23">
-        <v>14.33453296204829</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G23">
-        <v>0.0005793883979173643</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.01034299873146</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>4.465168816138316</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N23">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.952925649658368</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.536185184131341</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E24">
-        <v>0.07483385087922656</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F24">
-        <v>11.27011999333502</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G24">
-        <v>0.0006224015057557746</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>6.425616888882047</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>3.568028906441754</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N24">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.54074890451173</v>
+        <v>0.2637129805712561</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4041906753795672</v>
+        <v>1.288278350978203</v>
       </c>
       <c r="E25">
-        <v>0.05919985694349528</v>
+        <v>0.7802760580032455</v>
       </c>
       <c r="F25">
-        <v>8.588979108188084</v>
+        <v>17.41002440275804</v>
       </c>
       <c r="G25">
-        <v>0.0006642417936584162</v>
+        <v>0.0005233597990290662</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,12 +1529,18 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.97579536489377</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2.750928679337449</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>9.287088611537143</v>
+      </c>
+      <c r="N25">
+        <v>0.7915463279124282</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2761521748415277</v>
+        <v>2.34509079369559</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.415816999083148</v>
+        <v>0.127203346588896</v>
       </c>
       <c r="E2">
-        <v>0.8463949172655063</v>
+        <v>0.2573206326671738</v>
       </c>
       <c r="F2">
-        <v>19.06031633528733</v>
+        <v>0.3598141481174011</v>
       </c>
       <c r="G2">
-        <v>0.0005030481713439973</v>
+        <v>0.2919299671370936</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2269958384349877</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3919432093684456</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4885550386253215</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.085652639928014</v>
       </c>
       <c r="M2">
-        <v>10.07381547637203</v>
+        <v>0.7919766844051352</v>
       </c>
       <c r="N2">
-        <v>0.7746072050888131</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.044845678575598</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2404272840827133</v>
+        <v>2.045226185273691</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.086029913878434</v>
+        <v>0.1294749232968471</v>
       </c>
       <c r="E3">
-        <v>0.6737989699514344</v>
+        <v>0.2447262139831778</v>
       </c>
       <c r="F3">
-        <v>14.77089785212752</v>
+        <v>0.3556086449120173</v>
       </c>
       <c r="G3">
-        <v>0.0005575638561941853</v>
+        <v>0.2683503665770743</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2219687867037123</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4037184738023711</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4523423813782443</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.9458698805987353</v>
       </c>
       <c r="M3">
-        <v>7.997546928059108</v>
+        <v>0.6901946178423373</v>
       </c>
       <c r="N3">
-        <v>0.8186369867793246</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.983954679396021</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2189362327085007</v>
+        <v>1.861126561559757</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9278951358758718</v>
+        <v>0.1310100893217943</v>
       </c>
       <c r="E4">
-        <v>0.5885297502110518</v>
+        <v>0.2371209519174293</v>
       </c>
       <c r="F4">
-        <v>12.68885058895461</v>
+        <v>0.3542555898018236</v>
       </c>
       <c r="G4">
-        <v>0.0005863417917786272</v>
+        <v>0.2547367044125366</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2194296299140603</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4121307689876126</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.430249507082948</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.8599601027584072</v>
       </c>
       <c r="M4">
-        <v>6.950978241649693</v>
+        <v>0.6276739620687195</v>
       </c>
       <c r="N4">
-        <v>0.8405577133435287</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9495355744613363</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2102570413508573</v>
+        <v>1.786089921299094</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.8697536448847245</v>
+        <v>0.1316708282964925</v>
       </c>
       <c r="E5">
-        <v>0.5566009441460906</v>
+        <v>0.2340533228033834</v>
       </c>
       <c r="F5">
-        <v>11.91927747034936</v>
+        <v>0.3539988014652096</v>
       </c>
       <c r="G5">
-        <v>0.0005974567384937199</v>
+        <v>0.2493924447060678</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2185263188342432</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4158453476711266</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4212807378075638</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.8249235947767204</v>
       </c>
       <c r="M5">
-        <v>6.557119470847141</v>
+        <v>0.6021839750554392</v>
       </c>
       <c r="N5">
-        <v>0.8489271989554084</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9362132813365491</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2088199883167761</v>
+        <v>1.773628731421582</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8603992987200968</v>
+        <v>0.1317826616927888</v>
       </c>
       <c r="E6">
-        <v>0.5514308798470609</v>
+        <v>0.2335458375619837</v>
       </c>
       <c r="F6">
-        <v>11.79525718126942</v>
+        <v>0.353973542938995</v>
       </c>
       <c r="G6">
-        <v>0.0005992748349588073</v>
+        <v>0.2485169254808284</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2183840845938505</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4164791488916784</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4197935111670148</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.8191039555995019</v>
       </c>
       <c r="M6">
-        <v>6.493275587352002</v>
+        <v>0.5979504785439147</v>
       </c>
       <c r="N6">
-        <v>0.850294635418976</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9340424218577255</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.218818893698014</v>
+        <v>1.860114674457037</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9270894030520367</v>
+        <v>0.1310188581785177</v>
       </c>
       <c r="E7">
-        <v>0.5880896032038194</v>
+        <v>0.2370794536277891</v>
       </c>
       <c r="F7">
-        <v>12.6782006702212</v>
+        <v>0.3542509525546933</v>
       </c>
       <c r="G7">
-        <v>0.0005864937143087611</v>
+        <v>0.2546638241571628</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2194169234970929</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4121797189417791</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4301284141766928</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.8594877084079542</v>
       </c>
       <c r="M7">
-        <v>6.945554440141933</v>
+        <v>0.627330252339803</v>
       </c>
       <c r="N7">
-        <v>0.840672300159909</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9493531107035551</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2637129805712561</v>
+        <v>2.24168157690616</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.288278350978203</v>
+        <v>0.1279573456383964</v>
       </c>
       <c r="E8">
-        <v>0.7802760580032455</v>
+        <v>0.2529512065275483</v>
       </c>
       <c r="F8">
-        <v>17.41002440275804</v>
+        <v>0.3581000663338045</v>
       </c>
       <c r="G8">
-        <v>0.0005233597990290662</v>
+        <v>0.2836117504551439</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2251450286828955</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3957513007102946</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4760385669384846</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.037468377589192</v>
       </c>
       <c r="M8">
-        <v>9.287088611537143</v>
+        <v>0.7568840033534343</v>
       </c>
       <c r="N8">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.023208133904561</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2637129805712561</v>
+        <v>2.991051430783045</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.288278350978203</v>
+        <v>0.123075415227774</v>
       </c>
       <c r="E9">
-        <v>0.7802760580032455</v>
+        <v>0.2851190996879751</v>
       </c>
       <c r="F9">
-        <v>17.41002440275804</v>
+        <v>0.3760865330681895</v>
       </c>
       <c r="G9">
-        <v>0.0005233597990290662</v>
+        <v>0.3478990798659112</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2410191612336234</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3734270008206586</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5672699871832805</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.38618488503522</v>
       </c>
       <c r="M9">
-        <v>9.287088611537143</v>
+        <v>1.011026022346741</v>
       </c>
       <c r="N9">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.193617178947193</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2637129805712561</v>
+        <v>3.543804668975042</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.288278350978203</v>
+        <v>0.1201835669608187</v>
       </c>
       <c r="E10">
-        <v>0.7802760580032455</v>
+        <v>0.309437469678933</v>
       </c>
       <c r="F10">
-        <v>17.41002440275804</v>
+        <v>0.3966689974628466</v>
       </c>
       <c r="G10">
-        <v>0.0005233597990290662</v>
+        <v>0.4006917952684717</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2559492137154393</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3638048775291516</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6351550778926054</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.642759736378309</v>
       </c>
       <c r="M10">
-        <v>9.287088611537143</v>
+        <v>1.198257887428014</v>
       </c>
       <c r="N10">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.33739775873056</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2637129805712561</v>
+        <v>3.796109726136478</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.288278350978203</v>
+        <v>0.1190214676716508</v>
       </c>
       <c r="E11">
-        <v>0.7802760580032455</v>
+        <v>0.320661361037395</v>
       </c>
       <c r="F11">
-        <v>17.41002440275804</v>
+        <v>0.4078692693147019</v>
       </c>
       <c r="G11">
-        <v>0.0005233597990290662</v>
+        <v>0.4261473595153831</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2635545744197145</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3610766637363056</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6662552927625143</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.759700566220459</v>
       </c>
       <c r="M11">
-        <v>9.287088611537143</v>
+        <v>1.283658616029086</v>
       </c>
       <c r="N11">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.407549962853096</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2637129805712561</v>
+        <v>3.891806081846141</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.288278350978203</v>
+        <v>0.1186037000089684</v>
       </c>
       <c r="E12">
-        <v>0.7802760580032455</v>
+        <v>0.3249358162295195</v>
       </c>
       <c r="F12">
-        <v>17.41002440275804</v>
+        <v>0.4123958395165559</v>
       </c>
       <c r="G12">
-        <v>0.0005233597990290662</v>
+        <v>0.4360144073664429</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2665608027751176</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3602965090025165</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.678066347955621</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.804027130607977</v>
       </c>
       <c r="M12">
-        <v>9.287088611537143</v>
+        <v>1.316040243079868</v>
       </c>
       <c r="N12">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.434860395690407</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2637129805712561</v>
+        <v>3.871188794893953</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.288278350978203</v>
+        <v>0.1186926783845692</v>
       </c>
       <c r="E13">
-        <v>0.7802760580032455</v>
+        <v>0.3240141419575124</v>
       </c>
       <c r="F13">
-        <v>17.41002440275804</v>
+        <v>0.4114079234317103</v>
       </c>
       <c r="G13">
-        <v>0.0005233597990290662</v>
+        <v>0.4338788984185555</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2659075888421825</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3604530154403349</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6755210663144453</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.794478479444791</v>
       </c>
       <c r="M13">
-        <v>9.287088611537143</v>
+        <v>1.30906424388931</v>
       </c>
       <c r="N13">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.428944408996074</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2637129805712561</v>
+        <v>3.803979452238309</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.288278350978203</v>
+        <v>0.1189866494931024</v>
       </c>
       <c r="E14">
-        <v>0.7802760580032455</v>
+        <v>0.3210125316973844</v>
       </c>
       <c r="F14">
-        <v>17.41002440275804</v>
+        <v>0.4082358299735205</v>
       </c>
       <c r="G14">
-        <v>0.0005233597990290662</v>
+        <v>0.4269544438503203</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2637993132646841</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.36100731579495</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.6672262966648077</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.763346396253723</v>
       </c>
       <c r="M14">
-        <v>9.287088611537143</v>
+        <v>1.286321768948326</v>
       </c>
       <c r="N14">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.409781495575487</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2637129805712561</v>
+        <v>3.76283279347922</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.288278350978203</v>
+        <v>0.1191696257422805</v>
       </c>
       <c r="E15">
-        <v>0.7802760580032455</v>
+        <v>0.3191771432964572</v>
       </c>
       <c r="F15">
-        <v>17.41002440275804</v>
+        <v>0.4063306313133666</v>
       </c>
       <c r="G15">
-        <v>0.0005233597990290662</v>
+        <v>0.4227432861920306</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2625246596358295</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.361380271533335</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.6621500299549012</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.744283132248682</v>
       </c>
       <c r="M15">
-        <v>9.287088611537143</v>
+        <v>1.272397138377116</v>
       </c>
       <c r="N15">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.398142660684556</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2637129805712561</v>
+        <v>3.527335735021666</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.288278350978203</v>
+        <v>0.1202626196833592</v>
       </c>
       <c r="E16">
-        <v>0.7802760580032455</v>
+        <v>0.308707292891981</v>
       </c>
       <c r="F16">
-        <v>17.41002440275804</v>
+        <v>0.3959757734169784</v>
       </c>
       <c r="G16">
-        <v>0.0005233597990290662</v>
+        <v>0.3990589111339489</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2554693334311082</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3640176849276777</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6331272277790845</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.635122835113947</v>
       </c>
       <c r="M16">
-        <v>9.287088611537143</v>
+        <v>1.192682126577367</v>
       </c>
       <c r="N16">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.332913921025835</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2637129805712561</v>
+        <v>3.383106148642923</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.288278350978203</v>
+        <v>0.1209725920740965</v>
       </c>
       <c r="E17">
-        <v>0.7802760580032455</v>
+        <v>0.3023263927057016</v>
       </c>
       <c r="F17">
-        <v>17.41002440275804</v>
+        <v>0.3901085258258874</v>
       </c>
       <c r="G17">
-        <v>0.0005233597990290662</v>
+        <v>0.3849122710958426</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2513558853152205</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3660689415699068</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6153805266646941</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.568221651999124</v>
       </c>
       <c r="M17">
-        <v>9.287088611537143</v>
+        <v>1.14384442521289</v>
       </c>
       <c r="N17">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.294157095653759</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2637129805712561</v>
+        <v>3.300227569482104</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.288278350978203</v>
+        <v>0.1213953751464913</v>
       </c>
       <c r="E18">
-        <v>0.7802760580032455</v>
+        <v>0.2986713881204253</v>
       </c>
       <c r="F18">
-        <v>17.41002440275804</v>
+        <v>0.3869054252677415</v>
       </c>
       <c r="G18">
-        <v>0.0005233597990290662</v>
+        <v>0.3769097183334651</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2490659290307917</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3674029684769309</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6051935322083466</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.529762168605828</v>
       </c>
       <c r="M18">
-        <v>9.287088611537143</v>
+        <v>1.115775123249946</v>
       </c>
       <c r="N18">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.2723078702831</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2637129805712561</v>
+        <v>3.272178878123952</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.288278350978203</v>
+        <v>0.1215409929461444</v>
       </c>
       <c r="E19">
-        <v>0.7802760580032455</v>
+        <v>0.2974364340194029</v>
       </c>
       <c r="F19">
-        <v>17.41002440275804</v>
+        <v>0.3858497602978872</v>
       </c>
       <c r="G19">
-        <v>0.0005233597990290662</v>
+        <v>0.3742226412670675</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2483033690541561</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3678806644431312</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6017478261346412</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.51674360307058</v>
       </c>
       <c r="M19">
-        <v>9.287088611537143</v>
+        <v>1.106274646061109</v>
       </c>
       <c r="N19">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.264984281185065</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2637129805712561</v>
+        <v>3.398451296841017</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.288278350978203</v>
+        <v>0.1208955196412518</v>
       </c>
       <c r="E20">
-        <v>0.7802760580032455</v>
+        <v>0.3030040784884918</v>
       </c>
       <c r="F20">
-        <v>17.41002440275804</v>
+        <v>0.3907151976219794</v>
       </c>
       <c r="G20">
-        <v>0.0005233597990290662</v>
+        <v>0.3864041695656653</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2517858392131984</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3658345113145209</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6172675599437412</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.575341215525526</v>
       </c>
       <c r="M20">
-        <v>9.287088611537143</v>
+        <v>1.149041057832491</v>
       </c>
       <c r="N20">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.298236568760927</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2637129805712561</v>
+        <v>3.823716029330342</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.288278350978203</v>
+        <v>0.1188996960847248</v>
       </c>
       <c r="E21">
-        <v>0.7802760580032455</v>
+        <v>0.3218935117998782</v>
       </c>
       <c r="F21">
-        <v>17.41002440275804</v>
+        <v>0.4091596335775662</v>
       </c>
       <c r="G21">
-        <v>0.0005233597990290662</v>
+        <v>0.4289819769722953</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2644150617970382</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3608375076638097</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6696617248056214</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.772489364039927</v>
       </c>
       <c r="M21">
-        <v>9.287088611537143</v>
+        <v>1.293000560146041</v>
       </c>
       <c r="N21">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.41538935720942</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2637129805712561</v>
+        <v>4.102564354160734</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.288278350978203</v>
+        <v>0.1177253733575299</v>
       </c>
       <c r="E22">
-        <v>0.7802760580032455</v>
+        <v>0.3343805047794319</v>
       </c>
       <c r="F22">
-        <v>17.41002440275804</v>
+        <v>0.4228877252106287</v>
       </c>
       <c r="G22">
-        <v>0.0005233597990290662</v>
+        <v>0.4581461039940251</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2734095962747745</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.359054231865187</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7041043578596629</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.901597297385052</v>
       </c>
       <c r="M22">
-        <v>9.287088611537143</v>
+        <v>1.387337471190378</v>
       </c>
       <c r="N22">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.496332138479971</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2637129805712561</v>
+        <v>3.953643313611735</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.288278350978203</v>
+        <v>0.1183401507939479</v>
       </c>
       <c r="E23">
-        <v>0.7802760580032455</v>
+        <v>0.3277026421106655</v>
       </c>
       <c r="F23">
-        <v>17.41002440275804</v>
+        <v>0.4154003138225661</v>
       </c>
       <c r="G23">
-        <v>0.0005233597990290662</v>
+        <v>0.4424511605235608</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2685380519729961</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3598648379792166</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6857024536083429</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.832662111092787</v>
       </c>
       <c r="M23">
-        <v>9.287088611537143</v>
+        <v>1.336961794894165</v>
       </c>
       <c r="N23">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.452709051295244</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2637129805712561</v>
+        <v>3.391513630161455</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.288278350978203</v>
+        <v>0.1209303185974022</v>
       </c>
       <c r="E24">
-        <v>0.7802760580032455</v>
+        <v>0.3026976548966402</v>
       </c>
       <c r="F24">
-        <v>17.41002440275804</v>
+        <v>0.3904403931873617</v>
       </c>
       <c r="G24">
-        <v>0.0005233597990290662</v>
+        <v>0.3857292772026284</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2515912243891165</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3659400164632771</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.616414383114261</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.572122452682322</v>
       </c>
       <c r="M24">
-        <v>9.287088611537143</v>
+        <v>1.146691635565304</v>
       </c>
       <c r="N24">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.296390896252547</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2637129805712561</v>
+        <v>2.788058435039432</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.288278350978203</v>
+        <v>0.124274911195954</v>
       </c>
       <c r="E25">
-        <v>0.7802760580032455</v>
+        <v>0.2763003951172607</v>
       </c>
       <c r="F25">
-        <v>17.41002440275804</v>
+        <v>0.3700031016831531</v>
       </c>
       <c r="G25">
-        <v>0.0005233597990290662</v>
+        <v>0.3296053734491267</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2361843337147462</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3783327336804376</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5424486583355304</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.291825495999547</v>
       </c>
       <c r="M25">
-        <v>9.287088611537143</v>
+        <v>0.942219160386216</v>
       </c>
       <c r="N25">
-        <v>0.7915463279124282</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.144481258473149</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.34509079369559</v>
+        <v>1.189095389782267</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.127203346588896</v>
+        <v>0.3143629987666365</v>
       </c>
       <c r="E2">
-        <v>0.2573206326671738</v>
+        <v>0.3146415609947795</v>
       </c>
       <c r="F2">
-        <v>0.3598141481174011</v>
+        <v>0.9331639326599941</v>
       </c>
       <c r="G2">
-        <v>0.2919299671370936</v>
+        <v>0.4189333636495363</v>
       </c>
       <c r="H2">
-        <v>0.2269958384349877</v>
+        <v>0.5713768830932082</v>
       </c>
       <c r="I2">
-        <v>0.3919432093684456</v>
+        <v>0.8729593133135545</v>
       </c>
       <c r="J2">
-        <v>0.4885550386253215</v>
+        <v>0.4129581985981048</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.085652639928014</v>
+        <v>0.4462141630035603</v>
       </c>
       <c r="M2">
-        <v>0.7919766844051352</v>
+        <v>0.3644955490078203</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.044845678575598</v>
+        <v>1.929592594718571</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.045226185273691</v>
+        <v>1.091575191898755</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1294749232968471</v>
+        <v>0.3167364189788628</v>
       </c>
       <c r="E3">
-        <v>0.2447262139831778</v>
+        <v>0.3117002830617857</v>
       </c>
       <c r="F3">
-        <v>0.3556086449120173</v>
+        <v>0.9435632741459656</v>
       </c>
       <c r="G3">
-        <v>0.2683503665770743</v>
+        <v>0.418791464117831</v>
       </c>
       <c r="H3">
-        <v>0.2219687867037123</v>
+        <v>0.575501370408837</v>
       </c>
       <c r="I3">
-        <v>0.4037184738023711</v>
+        <v>0.8848543325973672</v>
       </c>
       <c r="J3">
-        <v>0.4523423813782443</v>
+        <v>0.4021598632990475</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9458698805987353</v>
+        <v>0.4003870681464434</v>
       </c>
       <c r="M3">
-        <v>0.6901946178423373</v>
+        <v>0.3312478445537153</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.983954679396021</v>
+        <v>1.93763772178923</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.861126561559757</v>
+        <v>1.031544212749566</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1310100893217943</v>
+        <v>0.3183050860984693</v>
       </c>
       <c r="E4">
-        <v>0.2371209519174293</v>
+        <v>0.3099865883021877</v>
       </c>
       <c r="F4">
-        <v>0.3542555898018236</v>
+        <v>0.9506257471101165</v>
       </c>
       <c r="G4">
-        <v>0.2547367044125366</v>
+        <v>0.4190927542983616</v>
       </c>
       <c r="H4">
-        <v>0.2194296299140603</v>
+        <v>0.5783588284838146</v>
       </c>
       <c r="I4">
-        <v>0.4121307689876126</v>
+        <v>0.8927819860345423</v>
       </c>
       <c r="J4">
-        <v>0.430249507082948</v>
+        <v>0.3956205775573665</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8599601027584072</v>
+        <v>0.3721440983002822</v>
       </c>
       <c r="M4">
-        <v>0.6276739620687195</v>
+        <v>0.3107695632379333</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9495355744613363</v>
+        <v>1.944071012645551</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.786089921299094</v>
+        <v>1.007044431903353</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1316708282964925</v>
+        <v>0.3189724177096274</v>
       </c>
       <c r="E5">
-        <v>0.2340533228033834</v>
+        <v>0.3093116537425971</v>
       </c>
       <c r="F5">
-        <v>0.3539988014652096</v>
+        <v>0.9536739018624303</v>
       </c>
       <c r="G5">
-        <v>0.2493924447060678</v>
+        <v>0.4193130000293337</v>
       </c>
       <c r="H5">
-        <v>0.2185263188342432</v>
+        <v>0.5796049879978185</v>
       </c>
       <c r="I5">
-        <v>0.4158453476711266</v>
+        <v>0.8961695223332313</v>
       </c>
       <c r="J5">
-        <v>0.4212807378075638</v>
+        <v>0.392979055650386</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8249235947767204</v>
+        <v>0.360609405164297</v>
       </c>
       <c r="M5">
-        <v>0.6021839750554392</v>
+        <v>0.3024090415616527</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9362132813365491</v>
+        <v>1.947067751856167</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.773628731421582</v>
+        <v>1.002974102015429</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1317826616927888</v>
+        <v>0.3190849263647095</v>
       </c>
       <c r="E6">
-        <v>0.2335458375619837</v>
+        <v>0.3092010014796926</v>
       </c>
       <c r="F6">
-        <v>0.353973542938995</v>
+        <v>0.9541903170358665</v>
       </c>
       <c r="G6">
-        <v>0.2485169254808284</v>
+        <v>0.4193554524876149</v>
       </c>
       <c r="H6">
-        <v>0.2183840845938505</v>
+        <v>0.5798168475531753</v>
       </c>
       <c r="I6">
-        <v>0.4164791488916784</v>
+        <v>0.8967415006239925</v>
       </c>
       <c r="J6">
-        <v>0.4197935111670148</v>
+        <v>0.3925418521368869</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8191039555995019</v>
+        <v>0.3586925685245035</v>
       </c>
       <c r="M6">
-        <v>0.5979504785439147</v>
+        <v>0.3010198691089201</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9340424218577255</v>
+        <v>1.947588001418282</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.860114674457037</v>
+        <v>1.03121394614692</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1310188581785177</v>
+        <v>0.3183139721355275</v>
       </c>
       <c r="E7">
-        <v>0.2370794536277891</v>
+        <v>0.3099773908330548</v>
       </c>
       <c r="F7">
-        <v>0.3542509525546933</v>
+        <v>0.9506661669111907</v>
       </c>
       <c r="G7">
-        <v>0.2546638241571628</v>
+        <v>0.4190953302374893</v>
       </c>
       <c r="H7">
-        <v>0.2194169234970929</v>
+        <v>0.578375303742277</v>
       </c>
       <c r="I7">
-        <v>0.4121797189417791</v>
+        <v>0.892827035997275</v>
       </c>
       <c r="J7">
-        <v>0.4301284141766928</v>
+        <v>0.3955848582041597</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8594877084079542</v>
+        <v>0.371988639208638</v>
       </c>
       <c r="M7">
-        <v>0.627330252339803</v>
+        <v>0.310656872030755</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9493531107035551</v>
+        <v>1.944109909461702</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.24168157690616</v>
+        <v>1.155503292974117</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1279573456383964</v>
+        <v>0.3151582857771302</v>
       </c>
       <c r="E8">
-        <v>0.2529512065275483</v>
+        <v>0.3136083834267254</v>
       </c>
       <c r="F8">
-        <v>0.3581000663338045</v>
+        <v>0.9366089716705659</v>
       </c>
       <c r="G8">
-        <v>0.2836117504551439</v>
+        <v>0.4188036974664016</v>
       </c>
       <c r="H8">
-        <v>0.2251450286828955</v>
+        <v>0.5727315489807694</v>
       </c>
       <c r="I8">
-        <v>0.3957513007102946</v>
+        <v>0.8769312070227855</v>
       </c>
       <c r="J8">
-        <v>0.4760385669384846</v>
+        <v>0.4092163079166653</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.037468377589192</v>
+        <v>0.4304353083547596</v>
       </c>
       <c r="M8">
-        <v>0.7568840033534343</v>
+        <v>0.3530454144830415</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.023208133904561</v>
+        <v>1.932056297837093</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.991051430783045</v>
+        <v>1.397949951198996</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.123075415227774</v>
+        <v>0.3098501755620049</v>
       </c>
       <c r="E9">
-        <v>0.2851190996879751</v>
+        <v>0.321452205533447</v>
       </c>
       <c r="F9">
-        <v>0.3760865330681895</v>
+        <v>0.9144236209834489</v>
       </c>
       <c r="G9">
-        <v>0.3478990798659112</v>
+        <v>0.42132358427952</v>
       </c>
       <c r="H9">
-        <v>0.2410191612336234</v>
+        <v>0.5642433541287488</v>
       </c>
       <c r="I9">
-        <v>0.3734270008206586</v>
+        <v>0.8507102664761028</v>
       </c>
       <c r="J9">
-        <v>0.5672699871832805</v>
+        <v>0.4366521172464957</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.38618488503522</v>
+        <v>0.5441808231879861</v>
       </c>
       <c r="M9">
-        <v>1.011026022346741</v>
+        <v>0.4356364719167232</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.193617178947193</v>
+        <v>1.920291942675959</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.543804668975042</v>
+        <v>1.575218013355993</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1201835669608187</v>
+        <v>0.3064820801180019</v>
       </c>
       <c r="E10">
-        <v>0.309437469678933</v>
+        <v>0.3276454593973384</v>
       </c>
       <c r="F10">
-        <v>0.3966689974628466</v>
+        <v>0.9014144915596418</v>
       </c>
       <c r="G10">
-        <v>0.4006917952684717</v>
+        <v>0.4250744369049784</v>
       </c>
       <c r="H10">
-        <v>0.2559492137154393</v>
+        <v>0.5595803767529759</v>
       </c>
       <c r="I10">
-        <v>0.3638048775291516</v>
+        <v>0.8344629819371612</v>
       </c>
       <c r="J10">
-        <v>0.6351550778926054</v>
+        <v>0.457218368457518</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.642759736378309</v>
+        <v>0.627180920667854</v>
       </c>
       <c r="M10">
-        <v>1.198257887428014</v>
+        <v>0.4959645293512835</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.33739775873056</v>
+        <v>1.918920134439873</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.796109726136478</v>
+        <v>1.65566124323567</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1190214676716508</v>
+        <v>0.3050643024824069</v>
       </c>
       <c r="E11">
-        <v>0.320661361037395</v>
+        <v>0.3305542151356562</v>
       </c>
       <c r="F11">
-        <v>0.4078692693147019</v>
+        <v>0.8962129804518568</v>
       </c>
       <c r="G11">
-        <v>0.4261473595153831</v>
+        <v>0.427196435899603</v>
       </c>
       <c r="H11">
-        <v>0.2635545744197145</v>
+        <v>0.5578009269251112</v>
       </c>
       <c r="I11">
-        <v>0.3610766637363056</v>
+        <v>0.8277267696119424</v>
       </c>
       <c r="J11">
-        <v>0.6662552927625143</v>
+        <v>0.4666592210741811</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.759700566220459</v>
+        <v>0.6648085767201337</v>
       </c>
       <c r="M11">
-        <v>1.283658616029086</v>
+        <v>0.5233277551934776</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.407549962853096</v>
+        <v>1.919882319269334</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.891806081846141</v>
+        <v>1.686093120592716</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1186037000089684</v>
+        <v>0.3045437954121653</v>
       </c>
       <c r="E12">
-        <v>0.3249358162295195</v>
+        <v>0.3316686352040179</v>
       </c>
       <c r="F12">
-        <v>0.4123958395165559</v>
+        <v>0.8943464986254241</v>
       </c>
       <c r="G12">
-        <v>0.4360144073664429</v>
+        <v>0.428059993722556</v>
       </c>
       <c r="H12">
-        <v>0.2665608027751176</v>
+        <v>0.5571762548960209</v>
       </c>
       <c r="I12">
-        <v>0.3602965090025165</v>
+        <v>0.8252701039036765</v>
       </c>
       <c r="J12">
-        <v>0.678066347955621</v>
+        <v>0.4702460867903682</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.804027130607977</v>
+        <v>0.6790377528964768</v>
       </c>
       <c r="M12">
-        <v>1.316040243079868</v>
+        <v>0.5336773886191111</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.434860395690407</v>
+        <v>1.920475300986055</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.871188794893953</v>
+        <v>1.679540445959276</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1186926783845692</v>
+        <v>0.3046551688331363</v>
       </c>
       <c r="E13">
-        <v>0.3240141419575124</v>
+        <v>0.331428052795907</v>
       </c>
       <c r="F13">
-        <v>0.4114079234317103</v>
+        <v>0.8947438851092144</v>
       </c>
       <c r="G13">
-        <v>0.4338788984185555</v>
+        <v>0.4278713389235946</v>
       </c>
       <c r="H13">
-        <v>0.2659075888421825</v>
+        <v>0.5573086021334035</v>
       </c>
       <c r="I13">
-        <v>0.3604530154403349</v>
+        <v>0.8257950009696771</v>
       </c>
       <c r="J13">
-        <v>0.6755210663144453</v>
+        <v>0.4694730721418239</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.794478479444791</v>
+        <v>0.6759741324324295</v>
       </c>
       <c r="M13">
-        <v>1.30906424388931</v>
+        <v>0.5314489643749454</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.428944408996074</v>
+        <v>1.9203374153835</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.803979452238309</v>
+        <v>1.658165508803961</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1189866494931024</v>
+        <v>0.3050211523036594</v>
       </c>
       <c r="E14">
-        <v>0.3210125316973844</v>
+        <v>0.3306456410437022</v>
       </c>
       <c r="F14">
-        <v>0.4082358299735205</v>
+        <v>0.8960573541032844</v>
       </c>
       <c r="G14">
-        <v>0.4269544438503203</v>
+        <v>0.4272662775050975</v>
       </c>
       <c r="H14">
-        <v>0.2637993132646841</v>
+        <v>0.5577485492772922</v>
       </c>
       <c r="I14">
-        <v>0.36100731579495</v>
+        <v>0.8275227702712087</v>
       </c>
       <c r="J14">
-        <v>0.6672262966648077</v>
+        <v>0.4669540802184429</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.763346396253723</v>
+        <v>0.6659796180026945</v>
       </c>
       <c r="M14">
-        <v>1.286321768948326</v>
+        <v>0.5241794746576858</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.409781495575487</v>
+        <v>1.919926519294563</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.76283279347922</v>
+        <v>1.645068749583231</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1191696257422805</v>
+        <v>0.3052474580102142</v>
       </c>
       <c r="E15">
-        <v>0.3191771432964572</v>
+        <v>0.3301680699524354</v>
       </c>
       <c r="F15">
-        <v>0.4063306313133666</v>
+        <v>0.8968753396275915</v>
       </c>
       <c r="G15">
-        <v>0.4227432861920306</v>
+        <v>0.426903480640604</v>
       </c>
       <c r="H15">
-        <v>0.2625246596358295</v>
+        <v>0.5580244332460751</v>
       </c>
       <c r="I15">
-        <v>0.361380271533335</v>
+        <v>0.8285933465956035</v>
       </c>
       <c r="J15">
-        <v>0.6621500299549012</v>
+        <v>0.4654126516228416</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.744283132248682</v>
+        <v>0.659855107884141</v>
       </c>
       <c r="M15">
-        <v>1.272397138377116</v>
+        <v>0.5197250900676096</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.398142660684556</v>
+        <v>1.919704622555685</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.527335735021666</v>
+        <v>1.569956732881735</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1202626196833592</v>
+        <v>0.3065770306200903</v>
       </c>
       <c r="E16">
-        <v>0.308707292891981</v>
+        <v>0.3274571870385756</v>
       </c>
       <c r="F16">
-        <v>0.3959757734169784</v>
+        <v>0.9017688555558152</v>
       </c>
       <c r="G16">
-        <v>0.3990589111339489</v>
+        <v>0.4249441437134038</v>
       </c>
       <c r="H16">
-        <v>0.2554693334311082</v>
+        <v>0.5597035470050571</v>
       </c>
       <c r="I16">
-        <v>0.3640176849276777</v>
+        <v>0.8349163878528074</v>
       </c>
       <c r="J16">
-        <v>0.6331272277790845</v>
+        <v>0.4566030636605944</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.635122835113947</v>
+        <v>0.6247191750920535</v>
       </c>
       <c r="M16">
-        <v>1.192682126577367</v>
+        <v>0.4941746040506843</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.332913921025835</v>
+        <v>1.918889217428244</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.383106148642923</v>
+        <v>1.523826144251814</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1209725920740965</v>
+        <v>0.3074219245033945</v>
       </c>
       <c r="E17">
-        <v>0.3023263927057016</v>
+        <v>0.3258174129267246</v>
       </c>
       <c r="F17">
-        <v>0.3901085258258874</v>
+        <v>0.9049545004989241</v>
       </c>
       <c r="G17">
-        <v>0.3849122710958426</v>
+        <v>0.4238487887640474</v>
       </c>
       <c r="H17">
-        <v>0.2513558853152205</v>
+        <v>0.5608211782045629</v>
       </c>
       <c r="I17">
-        <v>0.3660689415699068</v>
+        <v>0.8389630942569646</v>
       </c>
       <c r="J17">
-        <v>0.6153805266646941</v>
+        <v>0.4512201740205484</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.568221651999124</v>
+        <v>0.6031305505356954</v>
       </c>
       <c r="M17">
-        <v>1.14384442521289</v>
+        <v>0.4784791547219811</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.294157095653759</v>
+        <v>1.91879563971699</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.300227569482104</v>
+        <v>1.49727462963466</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1213953751464913</v>
+        <v>0.3079186560500986</v>
       </c>
       <c r="E18">
-        <v>0.2986713881204253</v>
+        <v>0.3248828747929053</v>
       </c>
       <c r="F18">
-        <v>0.3869054252677415</v>
+        <v>0.9068542190848348</v>
       </c>
       <c r="G18">
-        <v>0.3769097183334651</v>
+        <v>0.4232578856642419</v>
       </c>
       <c r="H18">
-        <v>0.2490659290307917</v>
+        <v>0.5614961770771743</v>
       </c>
       <c r="I18">
-        <v>0.3674029684769309</v>
+        <v>0.8413522792258732</v>
       </c>
       <c r="J18">
-        <v>0.6051935322083466</v>
+        <v>0.4481321193259049</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.529762168605828</v>
+        <v>0.5907012130027454</v>
       </c>
       <c r="M18">
-        <v>1.115775123249946</v>
+        <v>0.4694440283288088</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.2723078702831</v>
+        <v>1.918891088489886</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.272178878123952</v>
+        <v>1.488281637981459</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1215409929461444</v>
+        <v>0.308088692998254</v>
       </c>
       <c r="E19">
-        <v>0.2974364340194029</v>
+        <v>0.3245679425040819</v>
       </c>
       <c r="F19">
-        <v>0.3858497602978872</v>
+        <v>0.907509004482705</v>
       </c>
       <c r="G19">
-        <v>0.3742226412670675</v>
+        <v>0.4230645274134872</v>
       </c>
       <c r="H19">
-        <v>0.2483033690541561</v>
+        <v>0.561730244126025</v>
       </c>
       <c r="I19">
-        <v>0.3678806644431312</v>
+        <v>0.8421717995127196</v>
       </c>
       <c r="J19">
-        <v>0.6017478261346412</v>
+        <v>0.4470879511881662</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.51674360307058</v>
+        <v>0.5864907991923758</v>
       </c>
       <c r="M19">
-        <v>1.106274646061109</v>
+        <v>0.4663836191329409</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.264984281185065</v>
+        <v>1.918949027330683</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.398451296841017</v>
+        <v>1.528738744504551</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1208955196412518</v>
+        <v>0.3073308698938959</v>
       </c>
       <c r="E20">
-        <v>0.3030040784884918</v>
+        <v>0.3259910794090786</v>
       </c>
       <c r="F20">
-        <v>0.3907151976219794</v>
+        <v>0.9046084040026869</v>
       </c>
       <c r="G20">
-        <v>0.3864041695656653</v>
+        <v>0.4239613411743761</v>
       </c>
       <c r="H20">
-        <v>0.2517858392131984</v>
+        <v>0.5606988751331698</v>
       </c>
       <c r="I20">
-        <v>0.3658345113145209</v>
+        <v>0.8385259370782236</v>
       </c>
       <c r="J20">
-        <v>0.6172675599437412</v>
+        <v>0.4517923626948601</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.575341215525526</v>
+        <v>0.6054299591706922</v>
       </c>
       <c r="M20">
-        <v>1.149041057832491</v>
+        <v>0.4801507452234546</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.298236568760927</v>
+        <v>1.918790148281943</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.823716029330342</v>
+        <v>1.664444681511782</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1188996960847248</v>
+        <v>0.3049132102741865</v>
       </c>
       <c r="E21">
-        <v>0.3218935117998782</v>
+        <v>0.3308751048700032</v>
       </c>
       <c r="F21">
-        <v>0.4091596335775662</v>
+        <v>0.8956687535512415</v>
       </c>
       <c r="G21">
-        <v>0.4289819769722953</v>
+        <v>0.4274423684837814</v>
       </c>
       <c r="H21">
-        <v>0.2644150617970382</v>
+        <v>0.5576179915852038</v>
       </c>
       <c r="I21">
-        <v>0.3608375076638097</v>
+        <v>0.8270127258866253</v>
       </c>
       <c r="J21">
-        <v>0.6696617248056214</v>
+        <v>0.467693651801369</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.772489364039927</v>
+        <v>0.6689157888644388</v>
       </c>
       <c r="M21">
-        <v>1.293000560146041</v>
+        <v>0.5263150371916225</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.41538935720942</v>
+        <v>1.920041000511134</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.102564354160734</v>
+        <v>1.752959290818751</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1177253733575299</v>
+        <v>0.3034285393823808</v>
       </c>
       <c r="E22">
-        <v>0.3343805047794319</v>
+        <v>0.3341424118675889</v>
       </c>
       <c r="F22">
-        <v>0.4228877252106287</v>
+        <v>0.8904278967860648</v>
       </c>
       <c r="G22">
-        <v>0.4581461039940251</v>
+        <v>0.4300672654496083</v>
       </c>
       <c r="H22">
-        <v>0.2734095962747745</v>
+        <v>0.5558910488541073</v>
       </c>
       <c r="I22">
-        <v>0.359054231865187</v>
+        <v>0.820037218569901</v>
       </c>
       <c r="J22">
-        <v>0.7041043578596629</v>
+        <v>0.4781547628931975</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.901597297385052</v>
+        <v>0.710292753913734</v>
       </c>
       <c r="M22">
-        <v>1.387337471190378</v>
+        <v>0.5564144962512501</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.496332138479971</v>
+        <v>1.922191335121028</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.953643313611735</v>
+        <v>1.705734206581553</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1183401507939479</v>
+        <v>0.3042122305271491</v>
       </c>
       <c r="E23">
-        <v>0.3277026421106655</v>
+        <v>0.3323917655340125</v>
       </c>
       <c r="F23">
-        <v>0.4154003138225661</v>
+        <v>0.8931699179284607</v>
       </c>
       <c r="G23">
-        <v>0.4424511605235608</v>
+        <v>0.4286342246488459</v>
       </c>
       <c r="H23">
-        <v>0.2685380519729961</v>
+        <v>0.5567865202869342</v>
       </c>
       <c r="I23">
-        <v>0.3598648379792166</v>
+        <v>0.8237099271436819</v>
       </c>
       <c r="J23">
-        <v>0.6857024536083429</v>
+        <v>0.472565324845732</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.832662111092787</v>
+        <v>0.6882199043878643</v>
       </c>
       <c r="M23">
-        <v>1.336961794894165</v>
+        <v>0.5403566198139487</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.452709051295244</v>
+        <v>1.920921534994307</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.391513630161455</v>
+        <v>1.526517852551024</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1209303185974022</v>
+        <v>0.3073720014419479</v>
       </c>
       <c r="E24">
-        <v>0.3026976548966402</v>
+        <v>0.3259125392657793</v>
       </c>
       <c r="F24">
-        <v>0.3904403931873617</v>
+        <v>0.9047646616530756</v>
       </c>
       <c r="G24">
-        <v>0.3857292772026284</v>
+        <v>0.4239103352909552</v>
       </c>
       <c r="H24">
-        <v>0.2515912243891165</v>
+        <v>0.5607540672483253</v>
       </c>
       <c r="I24">
-        <v>0.3659400164632771</v>
+        <v>0.8387233805994327</v>
       </c>
       <c r="J24">
-        <v>0.616414383114261</v>
+        <v>0.451533655478201</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.572122452682322</v>
+        <v>0.6043904517423755</v>
       </c>
       <c r="M24">
-        <v>1.146691635565304</v>
+        <v>0.4793950552497677</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.296390896252547</v>
+        <v>1.918792166101838</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.788058435039432</v>
+        <v>1.332506991025241</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.124274911195954</v>
+        <v>0.3111924296084325</v>
       </c>
       <c r="E25">
-        <v>0.2763003951172607</v>
+        <v>0.3192539003107342</v>
       </c>
       <c r="F25">
-        <v>0.3700031016831531</v>
+        <v>0.9198482371428938</v>
       </c>
       <c r="G25">
-        <v>0.3296053734491267</v>
+        <v>0.4203093679110737</v>
       </c>
       <c r="H25">
-        <v>0.2361843337147462</v>
+        <v>0.5662634151716901</v>
       </c>
       <c r="I25">
-        <v>0.3783327336804376</v>
+        <v>0.8572738205066486</v>
       </c>
       <c r="J25">
-        <v>0.5424486583355304</v>
+        <v>0.4291566956025719</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.291825495999547</v>
+        <v>0.5135067084843854</v>
       </c>
       <c r="M25">
-        <v>0.942219160386216</v>
+        <v>0.4133532348656033</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.144481258473149</v>
+        <v>1.922199966746405</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.189095389782267</v>
+        <v>2.345090793695533</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3143629987666365</v>
+        <v>0.1272033465890523</v>
       </c>
       <c r="E2">
-        <v>0.3146415609947795</v>
+        <v>0.2573206326671809</v>
       </c>
       <c r="F2">
-        <v>0.9331639326599941</v>
+        <v>0.359814148117394</v>
       </c>
       <c r="G2">
-        <v>0.4189333636495363</v>
+        <v>0.2919299671370865</v>
       </c>
       <c r="H2">
-        <v>0.5713768830932082</v>
+        <v>0.2269958384349877</v>
       </c>
       <c r="I2">
-        <v>0.8729593133135545</v>
+        <v>0.3919432093684065</v>
       </c>
       <c r="J2">
-        <v>0.4129581985981048</v>
+        <v>0.4885550386253499</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4462141630035603</v>
+        <v>1.085652639928185</v>
       </c>
       <c r="M2">
-        <v>0.3644955490078203</v>
+        <v>0.7919766844051566</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.929592594718571</v>
+        <v>1.04484567857557</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.091575191898755</v>
+        <v>2.045226185273862</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3167364189788628</v>
+        <v>0.1294749232970425</v>
       </c>
       <c r="E3">
-        <v>0.3117002830617857</v>
+        <v>0.2447262139831743</v>
       </c>
       <c r="F3">
-        <v>0.9435632741459656</v>
+        <v>0.3556086449119888</v>
       </c>
       <c r="G3">
-        <v>0.418791464117831</v>
+        <v>0.2683503665771454</v>
       </c>
       <c r="H3">
-        <v>0.575501370408837</v>
+        <v>0.221968786703826</v>
       </c>
       <c r="I3">
-        <v>0.8848543325973672</v>
+        <v>0.4037184738024031</v>
       </c>
       <c r="J3">
-        <v>0.4021598632990475</v>
+        <v>0.4523423813782586</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4003870681464434</v>
+        <v>0.9458698805988774</v>
       </c>
       <c r="M3">
-        <v>0.3312478445537153</v>
+        <v>0.6901946178423444</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.93763772178923</v>
+        <v>0.9839546793958931</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.031544212749566</v>
+        <v>1.861126561559757</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3183050860984693</v>
+        <v>0.131010089321876</v>
       </c>
       <c r="E4">
-        <v>0.3099865883021877</v>
+        <v>0.2371209519174435</v>
       </c>
       <c r="F4">
-        <v>0.9506257471101165</v>
+        <v>0.3542555898018591</v>
       </c>
       <c r="G4">
-        <v>0.4190927542983616</v>
+        <v>0.254736704412565</v>
       </c>
       <c r="H4">
-        <v>0.5783588284838146</v>
+        <v>0.2194296299140674</v>
       </c>
       <c r="I4">
-        <v>0.8927819860345423</v>
+        <v>0.4121307689876161</v>
       </c>
       <c r="J4">
-        <v>0.3956205775573665</v>
+        <v>0.4302495070830048</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3721440983002822</v>
+        <v>0.8599601027584924</v>
       </c>
       <c r="M4">
-        <v>0.3107695632379333</v>
+        <v>0.6276739620687124</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.944071012645551</v>
+        <v>0.9495355744613363</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.007044431903353</v>
+        <v>1.786089921299379</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3189724177096274</v>
+        <v>0.1316708282966026</v>
       </c>
       <c r="E5">
-        <v>0.3093116537425971</v>
+        <v>0.2340533228034118</v>
       </c>
       <c r="F5">
-        <v>0.9536739018624303</v>
+        <v>0.3539988014652167</v>
       </c>
       <c r="G5">
-        <v>0.4193130000293337</v>
+        <v>0.2493924447060181</v>
       </c>
       <c r="H5">
-        <v>0.5796049879978185</v>
+        <v>0.2185263188343569</v>
       </c>
       <c r="I5">
-        <v>0.8961695223332313</v>
+        <v>0.415845347671123</v>
       </c>
       <c r="J5">
-        <v>0.392979055650386</v>
+        <v>0.4212807378075354</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.360609405164297</v>
+        <v>0.8249235947768057</v>
       </c>
       <c r="M5">
-        <v>0.3024090415616527</v>
+        <v>0.6021839750554676</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.947067751856167</v>
+        <v>0.9362132813365491</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.002974102015429</v>
+        <v>1.773628731421354</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3190849263647095</v>
+        <v>0.1317826616928741</v>
       </c>
       <c r="E6">
-        <v>0.3092010014796926</v>
+        <v>0.2335458375620227</v>
       </c>
       <c r="F6">
-        <v>0.9541903170358665</v>
+        <v>0.3539735429390234</v>
       </c>
       <c r="G6">
-        <v>0.4193554524876149</v>
+        <v>0.2485169254807289</v>
       </c>
       <c r="H6">
-        <v>0.5798168475531753</v>
+        <v>0.2183840845938505</v>
       </c>
       <c r="I6">
-        <v>0.8967415006239925</v>
+        <v>0.416479148891689</v>
       </c>
       <c r="J6">
-        <v>0.3925418521368869</v>
+        <v>0.4197935111670859</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3586925685245035</v>
+        <v>0.8191039555995872</v>
       </c>
       <c r="M6">
-        <v>0.3010198691089201</v>
+        <v>0.5979504785439076</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.947588001418282</v>
+        <v>0.9340424218577397</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.03121394614692</v>
+        <v>1.860114674457037</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3183139721355275</v>
+        <v>0.1310188581784892</v>
       </c>
       <c r="E7">
-        <v>0.3099773908330548</v>
+        <v>0.2370794536278034</v>
       </c>
       <c r="F7">
-        <v>0.9506661669111907</v>
+        <v>0.3542509525546933</v>
       </c>
       <c r="G7">
-        <v>0.4190953302374893</v>
+        <v>0.2546638241572197</v>
       </c>
       <c r="H7">
-        <v>0.578375303742277</v>
+        <v>0.2194169234970929</v>
       </c>
       <c r="I7">
-        <v>0.892827035997275</v>
+        <v>0.4121797189417471</v>
       </c>
       <c r="J7">
-        <v>0.3955848582041597</v>
+        <v>0.430128414176707</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.371988639208638</v>
+        <v>0.8594877084079826</v>
       </c>
       <c r="M7">
-        <v>0.310656872030755</v>
+        <v>0.6273302523397888</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.944109909461702</v>
+        <v>0.9493531107035551</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.155503292974117</v>
+        <v>2.241681576905705</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3151582857771302</v>
+        <v>0.1279573456381584</v>
       </c>
       <c r="E8">
-        <v>0.3136083834267254</v>
+        <v>0.2529512065275625</v>
       </c>
       <c r="F8">
-        <v>0.9366089716705659</v>
+        <v>0.3581000663337903</v>
       </c>
       <c r="G8">
-        <v>0.4188036974664016</v>
+        <v>0.283611750455151</v>
       </c>
       <c r="H8">
-        <v>0.5727315489807694</v>
+        <v>0.2251450286827748</v>
       </c>
       <c r="I8">
-        <v>0.8769312070227855</v>
+        <v>0.3957513007102875</v>
       </c>
       <c r="J8">
-        <v>0.4092163079166653</v>
+        <v>0.4760385669385698</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4304353083547596</v>
+        <v>1.037468377589022</v>
       </c>
       <c r="M8">
-        <v>0.3530454144830415</v>
+        <v>0.7568840033534201</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.932056297837093</v>
+        <v>1.023208133904561</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.397949951198996</v>
+        <v>2.991051430783159</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3098501755620049</v>
+        <v>0.1230754152276177</v>
       </c>
       <c r="E9">
-        <v>0.321452205533447</v>
+        <v>0.2851190996879609</v>
       </c>
       <c r="F9">
-        <v>0.9144236209834489</v>
+        <v>0.3760865330681895</v>
       </c>
       <c r="G9">
-        <v>0.42132358427952</v>
+        <v>0.3478990798659822</v>
       </c>
       <c r="H9">
-        <v>0.5642433541287488</v>
+        <v>0.2410191612336234</v>
       </c>
       <c r="I9">
-        <v>0.8507102664761028</v>
+        <v>0.3734270008206302</v>
       </c>
       <c r="J9">
-        <v>0.4366521172464957</v>
+        <v>0.5672699871833373</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5441808231879861</v>
+        <v>1.38618488503522</v>
       </c>
       <c r="M9">
-        <v>0.4356364719167232</v>
+        <v>1.011026022346726</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.920291942675959</v>
+        <v>1.193617178947221</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.575218013355993</v>
+        <v>3.543804668974985</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3064820801180019</v>
+        <v>0.1201835669607689</v>
       </c>
       <c r="E10">
-        <v>0.3276454593973384</v>
+        <v>0.3094374696789188</v>
       </c>
       <c r="F10">
-        <v>0.9014144915596418</v>
+        <v>0.3966689974628395</v>
       </c>
       <c r="G10">
-        <v>0.4250744369049784</v>
+        <v>0.4006917952684717</v>
       </c>
       <c r="H10">
-        <v>0.5595803767529759</v>
+        <v>0.2559492137154393</v>
       </c>
       <c r="I10">
-        <v>0.8344629819371612</v>
+        <v>0.3638048775291516</v>
       </c>
       <c r="J10">
-        <v>0.457218368457518</v>
+        <v>0.6351550778926764</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.627180920667854</v>
+        <v>1.642759736378451</v>
       </c>
       <c r="M10">
-        <v>0.4959645293512835</v>
+        <v>1.198257887428014</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.918920134439873</v>
+        <v>1.337397758730617</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.65566124323567</v>
+        <v>3.796109726136592</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3050643024824069</v>
+        <v>0.1190214676716508</v>
       </c>
       <c r="E11">
-        <v>0.3305542151356562</v>
+        <v>0.320661361037395</v>
       </c>
       <c r="F11">
-        <v>0.8962129804518568</v>
+        <v>0.4078692693146877</v>
       </c>
       <c r="G11">
-        <v>0.427196435899603</v>
+        <v>0.4261473595153831</v>
       </c>
       <c r="H11">
-        <v>0.5578009269251112</v>
+        <v>0.2635545744196008</v>
       </c>
       <c r="I11">
-        <v>0.8277267696119424</v>
+        <v>0.3610766637362985</v>
       </c>
       <c r="J11">
-        <v>0.4666592210741811</v>
+        <v>0.6662552927625001</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6648085767201337</v>
+        <v>1.759700566220573</v>
       </c>
       <c r="M11">
-        <v>0.5233277551934776</v>
+        <v>1.283658616029086</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.919882319269334</v>
+        <v>1.407549962853096</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.686093120592716</v>
+        <v>3.8918060818458</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3045437954121653</v>
+        <v>0.1186037000090749</v>
       </c>
       <c r="E12">
-        <v>0.3316686352040179</v>
+        <v>0.3249358162295408</v>
       </c>
       <c r="F12">
-        <v>0.8943464986254241</v>
+        <v>0.4123958395165559</v>
       </c>
       <c r="G12">
-        <v>0.428059993722556</v>
+        <v>0.4360144073664571</v>
       </c>
       <c r="H12">
-        <v>0.5571762548960209</v>
+        <v>0.2665608027751176</v>
       </c>
       <c r="I12">
-        <v>0.8252701039036765</v>
+        <v>0.3602965090025165</v>
       </c>
       <c r="J12">
-        <v>0.4702460867903682</v>
+        <v>0.6780663479556921</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6790377528964768</v>
+        <v>1.804027130607949</v>
       </c>
       <c r="M12">
-        <v>0.5336773886191111</v>
+        <v>1.316040243079854</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.920475300986055</v>
+        <v>1.434860395690549</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.679540445959276</v>
+        <v>3.871188794893612</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3046551688331363</v>
+        <v>0.1186926783844555</v>
       </c>
       <c r="E13">
-        <v>0.331428052795907</v>
+        <v>0.3240141419575124</v>
       </c>
       <c r="F13">
-        <v>0.8947438851092144</v>
+        <v>0.4114079234317103</v>
       </c>
       <c r="G13">
-        <v>0.4278713389235946</v>
+        <v>0.4338788984185697</v>
       </c>
       <c r="H13">
-        <v>0.5573086021334035</v>
+        <v>0.2659075888421825</v>
       </c>
       <c r="I13">
-        <v>0.8257950009696771</v>
+        <v>0.3604530154403349</v>
       </c>
       <c r="J13">
-        <v>0.4694730721418239</v>
+        <v>0.6755210663144453</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6759741324324295</v>
+        <v>1.794478479444791</v>
       </c>
       <c r="M13">
-        <v>0.5314489643749454</v>
+        <v>1.309064243889296</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.9203374153835</v>
+        <v>1.428944408996074</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.658165508803961</v>
+        <v>3.803979452238423</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3050211523036594</v>
+        <v>0.1189866494930669</v>
       </c>
       <c r="E14">
-        <v>0.3306456410437022</v>
+        <v>0.3210125316973702</v>
       </c>
       <c r="F14">
-        <v>0.8960573541032844</v>
+        <v>0.4082358299735418</v>
       </c>
       <c r="G14">
-        <v>0.4272662775050975</v>
+        <v>0.4269544438503488</v>
       </c>
       <c r="H14">
-        <v>0.5577485492772922</v>
+        <v>0.2637993132646841</v>
       </c>
       <c r="I14">
-        <v>0.8275227702712087</v>
+        <v>0.36100731579495</v>
       </c>
       <c r="J14">
-        <v>0.4669540802184429</v>
+        <v>0.6672262966648077</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6659796180026945</v>
+        <v>1.763346396253581</v>
       </c>
       <c r="M14">
-        <v>0.5241794746576858</v>
+        <v>1.286321768948341</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.919926519294563</v>
+        <v>1.409781495575601</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.645068749583231</v>
+        <v>3.76283279347922</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3052474580102142</v>
+        <v>0.1191696257424084</v>
       </c>
       <c r="E15">
-        <v>0.3301680699524354</v>
+        <v>0.3191771432964572</v>
       </c>
       <c r="F15">
-        <v>0.8968753396275915</v>
+        <v>0.4063306313133666</v>
       </c>
       <c r="G15">
-        <v>0.426903480640604</v>
+        <v>0.4227432861920732</v>
       </c>
       <c r="H15">
-        <v>0.5580244332460751</v>
+        <v>0.2625246596358295</v>
       </c>
       <c r="I15">
-        <v>0.8285933465956035</v>
+        <v>0.3613802715333279</v>
       </c>
       <c r="J15">
-        <v>0.4654126516228416</v>
+        <v>0.6621500299548018</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.659855107884141</v>
+        <v>1.744283132248455</v>
       </c>
       <c r="M15">
-        <v>0.5197250900676096</v>
+        <v>1.272397138377173</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.919704622555685</v>
+        <v>1.398142660684499</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.569956732881735</v>
+        <v>3.527335735021609</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3065770306200903</v>
+        <v>0.1202626196831247</v>
       </c>
       <c r="E16">
-        <v>0.3274571870385756</v>
+        <v>0.3087072928919525</v>
       </c>
       <c r="F16">
-        <v>0.9017688555558152</v>
+        <v>0.3959757734169926</v>
       </c>
       <c r="G16">
-        <v>0.4249441437134038</v>
+        <v>0.399058911133892</v>
       </c>
       <c r="H16">
-        <v>0.5597035470050571</v>
+        <v>0.2554693334311082</v>
       </c>
       <c r="I16">
-        <v>0.8349163878528074</v>
+        <v>0.3640176849276706</v>
       </c>
       <c r="J16">
-        <v>0.4566030636605944</v>
+        <v>0.6331272277791413</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6247191750920535</v>
+        <v>1.635122835113918</v>
       </c>
       <c r="M16">
-        <v>0.4941746040506843</v>
+        <v>1.192682126577367</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.918889217428244</v>
+        <v>1.332913921025863</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.523826144251814</v>
+        <v>3.38310614864298</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3074219245033945</v>
+        <v>0.1209725920742954</v>
       </c>
       <c r="E17">
-        <v>0.3258174129267246</v>
+        <v>0.3023263927056874</v>
       </c>
       <c r="F17">
-        <v>0.9049545004989241</v>
+        <v>0.3901085258258874</v>
       </c>
       <c r="G17">
-        <v>0.4238487887640474</v>
+        <v>0.3849122710957431</v>
       </c>
       <c r="H17">
-        <v>0.5608211782045629</v>
+        <v>0.2513558853152205</v>
       </c>
       <c r="I17">
-        <v>0.8389630942569646</v>
+        <v>0.3660689415699281</v>
       </c>
       <c r="J17">
-        <v>0.4512201740205484</v>
+        <v>0.6153805266646515</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6031305505356954</v>
+        <v>1.568221651999096</v>
       </c>
       <c r="M17">
-        <v>0.4784791547219811</v>
+        <v>1.14384442521289</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.91879563971699</v>
+        <v>1.294157095653702</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.49727462963466</v>
+        <v>3.300227569482104</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3079186560500986</v>
+        <v>0.1213953751464985</v>
       </c>
       <c r="E18">
-        <v>0.3248828747929053</v>
+        <v>0.2986713881204679</v>
       </c>
       <c r="F18">
-        <v>0.9068542190848348</v>
+        <v>0.3869054252677131</v>
       </c>
       <c r="G18">
-        <v>0.4232578856642419</v>
+        <v>0.3769097183333656</v>
       </c>
       <c r="H18">
-        <v>0.5614961770771743</v>
+        <v>0.2490659290307775</v>
       </c>
       <c r="I18">
-        <v>0.8413522792258732</v>
+        <v>0.3674029684769309</v>
       </c>
       <c r="J18">
-        <v>0.4481321193259049</v>
+        <v>0.6051935322084177</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5907012130027454</v>
+        <v>1.529762168605856</v>
       </c>
       <c r="M18">
-        <v>0.4694440283288088</v>
+        <v>1.115775123249989</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.918891088489886</v>
+        <v>1.272307870283157</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.488281637981459</v>
+        <v>3.272178878124237</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.308088692998254</v>
+        <v>0.1215409929459952</v>
       </c>
       <c r="E19">
-        <v>0.3245679425040819</v>
+        <v>0.2974364340193816</v>
       </c>
       <c r="F19">
-        <v>0.907509004482705</v>
+        <v>0.3858497602978872</v>
       </c>
       <c r="G19">
-        <v>0.4230645274134872</v>
+        <v>0.3742226412670675</v>
       </c>
       <c r="H19">
-        <v>0.561730244126025</v>
+        <v>0.2483033690542555</v>
       </c>
       <c r="I19">
-        <v>0.8421717995127196</v>
+        <v>0.3678806644431241</v>
       </c>
       <c r="J19">
-        <v>0.4470879511881662</v>
+        <v>0.6017478261346128</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5864907991923758</v>
+        <v>1.516743603070466</v>
       </c>
       <c r="M19">
-        <v>0.4663836191329409</v>
+        <v>1.106274646061166</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.918949027330683</v>
+        <v>1.264984281184979</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.528738744504551</v>
+        <v>3.398451296840619</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3073308698938959</v>
+        <v>0.1208955196412091</v>
       </c>
       <c r="E20">
-        <v>0.3259910794090786</v>
+        <v>0.3030040784884989</v>
       </c>
       <c r="F20">
-        <v>0.9046084040026869</v>
+        <v>0.3907151976219581</v>
       </c>
       <c r="G20">
-        <v>0.4239613411743761</v>
+        <v>0.3864041695656795</v>
       </c>
       <c r="H20">
-        <v>0.5606988751331698</v>
+        <v>0.2517858392131984</v>
       </c>
       <c r="I20">
-        <v>0.8385259370782236</v>
+        <v>0.3658345113145209</v>
       </c>
       <c r="J20">
-        <v>0.4517923626948601</v>
+        <v>0.6172675599437554</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6054299591706922</v>
+        <v>1.575341215525413</v>
       </c>
       <c r="M20">
-        <v>0.4801507452234546</v>
+        <v>1.149041057832463</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.918790148281943</v>
+        <v>1.298236568760899</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.664444681511782</v>
+        <v>3.823716029330683</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3049132102741865</v>
+        <v>0.118899696084668</v>
       </c>
       <c r="E21">
-        <v>0.3308751048700032</v>
+        <v>0.3218935117998711</v>
       </c>
       <c r="F21">
-        <v>0.8956687535512415</v>
+        <v>0.4091596335775662</v>
       </c>
       <c r="G21">
-        <v>0.4274423684837814</v>
+        <v>0.4289819769723806</v>
       </c>
       <c r="H21">
-        <v>0.5576179915852038</v>
+        <v>0.2644150617970382</v>
       </c>
       <c r="I21">
-        <v>0.8270127258866253</v>
+        <v>0.360837507663831</v>
       </c>
       <c r="J21">
-        <v>0.467693651801369</v>
+        <v>0.6696617248056356</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6689157888644388</v>
+        <v>1.772489364040041</v>
       </c>
       <c r="M21">
-        <v>0.5263150371916225</v>
+        <v>1.293000560146012</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.920041000511134</v>
+        <v>1.41538935720942</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.752959290818751</v>
+        <v>4.102564354160677</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3034285393823808</v>
+        <v>0.117725373357473</v>
       </c>
       <c r="E22">
-        <v>0.3341424118675889</v>
+        <v>0.3343805047794461</v>
       </c>
       <c r="F22">
-        <v>0.8904278967860648</v>
+        <v>0.4228877252106287</v>
       </c>
       <c r="G22">
-        <v>0.4300672654496083</v>
+        <v>0.458146103994082</v>
       </c>
       <c r="H22">
-        <v>0.5558910488541073</v>
+        <v>0.2734095962747745</v>
       </c>
       <c r="I22">
-        <v>0.820037218569901</v>
+        <v>0.359054231865187</v>
       </c>
       <c r="J22">
-        <v>0.4781547628931975</v>
+        <v>0.7041043578597197</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.710292753913734</v>
+        <v>1.901597297385024</v>
       </c>
       <c r="M22">
-        <v>0.5564144962512501</v>
+        <v>1.387337471190392</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.922191335121028</v>
+        <v>1.496332138479886</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.705734206581553</v>
+        <v>3.953643313611849</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3042122305271491</v>
+        <v>0.1183401507938342</v>
       </c>
       <c r="E23">
-        <v>0.3323917655340125</v>
+        <v>0.327702642110701</v>
       </c>
       <c r="F23">
-        <v>0.8931699179284607</v>
+        <v>0.4154003138226017</v>
       </c>
       <c r="G23">
-        <v>0.4286342246488459</v>
+        <v>0.4424511605236034</v>
       </c>
       <c r="H23">
-        <v>0.5567865202869342</v>
+        <v>0.2685380519731098</v>
       </c>
       <c r="I23">
-        <v>0.8237099271436819</v>
+        <v>0.3598648379792451</v>
       </c>
       <c r="J23">
-        <v>0.472565324845732</v>
+        <v>0.685702453608414</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6882199043878643</v>
+        <v>1.832662111092816</v>
       </c>
       <c r="M23">
-        <v>0.5403566198139487</v>
+        <v>1.336961794894179</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.920921534994307</v>
+        <v>1.452709051295187</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.526517852551024</v>
+        <v>3.391513630161569</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3073720014419479</v>
+        <v>0.1209303185971677</v>
       </c>
       <c r="E24">
-        <v>0.3259125392657793</v>
+        <v>0.3026976548966545</v>
       </c>
       <c r="F24">
-        <v>0.9047646616530756</v>
+        <v>0.3904403931873617</v>
       </c>
       <c r="G24">
-        <v>0.4239103352909552</v>
+        <v>0.385729277202671</v>
       </c>
       <c r="H24">
-        <v>0.5607540672483253</v>
+        <v>0.2515912243891165</v>
       </c>
       <c r="I24">
-        <v>0.8387233805994327</v>
+        <v>0.36594001646327</v>
       </c>
       <c r="J24">
-        <v>0.451533655478201</v>
+        <v>0.6164143831142894</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6043904517423755</v>
+        <v>1.572122452682265</v>
       </c>
       <c r="M24">
-        <v>0.4793950552497677</v>
+        <v>1.146691635565304</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.918792166101838</v>
+        <v>1.296390896252603</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.332506991025241</v>
+        <v>2.788058435039432</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3111924296084325</v>
+        <v>0.1242749111960606</v>
       </c>
       <c r="E25">
-        <v>0.3192539003107342</v>
+        <v>0.276300395117282</v>
       </c>
       <c r="F25">
-        <v>0.9198482371428938</v>
+        <v>0.3700031016831531</v>
       </c>
       <c r="G25">
-        <v>0.4203093679110737</v>
+        <v>0.3296053734491835</v>
       </c>
       <c r="H25">
-        <v>0.5662634151716901</v>
+        <v>0.2361843337147604</v>
       </c>
       <c r="I25">
-        <v>0.8572738205066486</v>
+        <v>0.3783327336804341</v>
       </c>
       <c r="J25">
-        <v>0.4291566956025719</v>
+        <v>0.5424486583355161</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5135067084843854</v>
+        <v>1.291825495999689</v>
       </c>
       <c r="M25">
-        <v>0.4133532348656033</v>
+        <v>0.9422191603862018</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.922199966746405</v>
+        <v>1.144481258473121</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.345090793695533</v>
+        <v>0.3862279631658083</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1272033465890523</v>
+        <v>0.03588606110555048</v>
       </c>
       <c r="E2">
-        <v>0.2573206326671809</v>
+        <v>0.3213134157410309</v>
       </c>
       <c r="F2">
-        <v>0.359814148117394</v>
+        <v>2.730589687273095</v>
       </c>
       <c r="G2">
-        <v>0.2919299671370865</v>
+        <v>3.052118517939618</v>
       </c>
       <c r="H2">
-        <v>0.2269958384349877</v>
+        <v>0.026917449761648</v>
       </c>
       <c r="I2">
-        <v>0.3919432093684065</v>
+        <v>0.005768308028710756</v>
       </c>
       <c r="J2">
-        <v>0.4885550386253499</v>
+        <v>1.509729988974442</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3095639435505539</v>
       </c>
       <c r="L2">
-        <v>1.085652639928185</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7919766844051566</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.04484567857557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2.854002756471985</v>
+      </c>
+      <c r="P2">
+        <v>1.606293075161204</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.045226185273862</v>
+        <v>0.3368854620523223</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1294749232970425</v>
+        <v>0.03101538830286188</v>
       </c>
       <c r="E3">
-        <v>0.2447262139831743</v>
+        <v>0.2902534591452062</v>
       </c>
       <c r="F3">
-        <v>0.3556086449119888</v>
+        <v>2.361719748301439</v>
       </c>
       <c r="G3">
-        <v>0.2683503665771454</v>
+        <v>2.63313538685091</v>
       </c>
       <c r="H3">
-        <v>0.221968786703826</v>
+        <v>0.01958714209138601</v>
       </c>
       <c r="I3">
-        <v>0.4037184738024031</v>
+        <v>0.006570287782829531</v>
       </c>
       <c r="J3">
-        <v>0.4523423813782586</v>
+        <v>1.315555647893518</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3076935776055798</v>
       </c>
       <c r="L3">
-        <v>0.9458698805988774</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6901946178423444</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9839546793958931</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>2.477254979937129</v>
+      </c>
+      <c r="P3">
+        <v>1.515715226664184</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.861126561559757</v>
+        <v>0.3060371068947205</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.131010089321876</v>
+        <v>0.02807511811956687</v>
       </c>
       <c r="E4">
-        <v>0.2371209519174435</v>
+        <v>0.2716765871798419</v>
       </c>
       <c r="F4">
-        <v>0.3542555898018591</v>
+        <v>2.139424938567203</v>
       </c>
       <c r="G4">
-        <v>0.254736704412565</v>
+        <v>2.380463090594191</v>
       </c>
       <c r="H4">
-        <v>0.2194296299140674</v>
+        <v>0.01558267328076979</v>
       </c>
       <c r="I4">
-        <v>0.4121307689876161</v>
+        <v>0.007135463771506423</v>
       </c>
       <c r="J4">
-        <v>0.4302495070830048</v>
+        <v>1.198703522881431</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3069897854795478</v>
       </c>
       <c r="L4">
-        <v>0.8599601027584924</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6276739620687124</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9495355744613363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>2.247491192592008</v>
+      </c>
+      <c r="P4">
+        <v>1.46115541533355</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.786089921299379</v>
+        <v>0.2922859292326905</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1316708282966026</v>
+        <v>0.02687540837715829</v>
       </c>
       <c r="E5">
-        <v>0.2340533228034118</v>
+        <v>0.264174525257884</v>
       </c>
       <c r="F5">
-        <v>0.3539988014652167</v>
+        <v>2.049474531231297</v>
       </c>
       <c r="G5">
-        <v>0.2493924447060181</v>
+        <v>2.278153697936943</v>
       </c>
       <c r="H5">
-        <v>0.2185263188343569</v>
+        <v>0.01406254032760806</v>
       </c>
       <c r="I5">
-        <v>0.415845347671123</v>
+        <v>0.007465963403503473</v>
       </c>
       <c r="J5">
-        <v>0.4212807378075354</v>
+        <v>1.151436856416694</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3072937369678606</v>
       </c>
       <c r="L5">
-        <v>0.8249235947768057</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6021839750554676</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9362132813365491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>2.155190008022217</v>
+      </c>
+      <c r="P5">
+        <v>1.441067741375321</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.773628731421354</v>
+        <v>0.2887168219357932</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1317826616928741</v>
+        <v>0.02666214650199095</v>
       </c>
       <c r="E6">
-        <v>0.2335458375620227</v>
+        <v>0.2629025405709955</v>
       </c>
       <c r="F6">
-        <v>0.3539735429390234</v>
+        <v>2.03426539711505</v>
       </c>
       <c r="G6">
-        <v>0.2485169254807289</v>
+        <v>2.260825621622729</v>
       </c>
       <c r="H6">
-        <v>0.2183840845938505</v>
+        <v>0.01381755602650431</v>
       </c>
       <c r="I6">
-        <v>0.416479148891689</v>
+        <v>0.007629981219312576</v>
       </c>
       <c r="J6">
-        <v>0.4197935111670859</v>
+        <v>1.143418359299346</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3079434837451238</v>
       </c>
       <c r="L6">
-        <v>0.8191039555995872</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5979504785439076</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9340424218577397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>2.14111235914153</v>
+      </c>
+      <c r="P6">
+        <v>1.440060689148567</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.860114674457037</v>
+        <v>0.3023495472261715</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1310188581784892</v>
+        <v>0.02801890215751257</v>
       </c>
       <c r="E7">
-        <v>0.2370794536278034</v>
+        <v>0.2714893220362828</v>
       </c>
       <c r="F7">
-        <v>0.3542509525546933</v>
+        <v>2.137324460029234</v>
       </c>
       <c r="G7">
-        <v>0.2546638241572197</v>
+        <v>2.378001485422431</v>
       </c>
       <c r="H7">
-        <v>0.2194169234970929</v>
+        <v>0.01556512926317766</v>
       </c>
       <c r="I7">
-        <v>0.4121797189417471</v>
+        <v>0.007419712922021482</v>
       </c>
       <c r="J7">
-        <v>0.430128414176707</v>
+        <v>1.197520847170921</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3086205673593909</v>
       </c>
       <c r="L7">
-        <v>0.8594877084079826</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6273302523397888</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9493531107035551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>2.249613974125126</v>
+      </c>
+      <c r="P7">
+        <v>1.46723389222177</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.241681576905705</v>
+        <v>0.3646593076049385</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1279573456381584</v>
+        <v>0.03414158857423644</v>
       </c>
       <c r="E8">
-        <v>0.2529512065275625</v>
+        <v>0.3103644907656511</v>
       </c>
       <c r="F8">
-        <v>0.3581000663337903</v>
+        <v>2.601259720007079</v>
       </c>
       <c r="G8">
-        <v>0.283611750455151</v>
+        <v>2.905155852031925</v>
       </c>
       <c r="H8">
-        <v>0.2251450286827748</v>
+        <v>0.02428418825596013</v>
       </c>
       <c r="I8">
-        <v>0.3957513007102875</v>
+        <v>0.00637021792188186</v>
       </c>
       <c r="J8">
-        <v>0.4760385669385698</v>
+        <v>1.441512555312499</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3110294932018789</v>
       </c>
       <c r="L8">
-        <v>1.037468377589022</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7568840033534201</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.023208133904561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.728217773934844</v>
+      </c>
+      <c r="P8">
+        <v>1.583406118142634</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.991051430783159</v>
+        <v>0.4886037566668335</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1230754152276177</v>
+        <v>0.04673440345461444</v>
       </c>
       <c r="E9">
-        <v>0.2851190996879609</v>
+        <v>0.392250111807587</v>
       </c>
       <c r="F9">
-        <v>0.3760865330681895</v>
+        <v>3.553694195812852</v>
       </c>
       <c r="G9">
-        <v>0.3478990798659822</v>
+        <v>3.986075323638062</v>
       </c>
       <c r="H9">
-        <v>0.2410191612336234</v>
+        <v>0.04600993565798683</v>
       </c>
       <c r="I9">
-        <v>0.3734270008206302</v>
+        <v>0.004482014550919899</v>
       </c>
       <c r="J9">
-        <v>0.5672699871833373</v>
+        <v>1.943961178141848</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3163656776444483</v>
       </c>
       <c r="L9">
-        <v>1.38618488503522</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.011026022346726</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.193617178947221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3.676523335105315</v>
+      </c>
+      <c r="P9">
+        <v>1.808106754937825</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.543804668974985</v>
+        <v>0.5769971786317853</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1201835669607689</v>
+        <v>0.05486187931042252</v>
       </c>
       <c r="E10">
-        <v>0.3094374696789188</v>
+        <v>0.4592432365611856</v>
       </c>
       <c r="F10">
-        <v>0.3966689974628395</v>
+        <v>4.253890719943115</v>
       </c>
       <c r="G10">
-        <v>0.4006917952684717</v>
+        <v>4.776545932900831</v>
       </c>
       <c r="H10">
-        <v>0.2559492137154393</v>
+        <v>0.06478392491566698</v>
       </c>
       <c r="I10">
-        <v>0.3638048775291516</v>
+        <v>0.003665538484181496</v>
       </c>
       <c r="J10">
-        <v>0.6351550778926764</v>
+        <v>2.311536504235562</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3261069509871604</v>
       </c>
       <c r="L10">
-        <v>1.642759736378451</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.198257887428014</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.337397758730617</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>4.305309389496585</v>
+      </c>
+      <c r="P10">
+        <v>1.99979559531991</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.796109726136592</v>
+        <v>0.6300622604445323</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1190214676716508</v>
+        <v>0.04543884740166959</v>
       </c>
       <c r="E11">
-        <v>0.320661361037395</v>
+        <v>0.545103217895317</v>
       </c>
       <c r="F11">
-        <v>0.4078692693146877</v>
+        <v>4.263970632391761</v>
       </c>
       <c r="G11">
-        <v>0.4261473595153831</v>
+        <v>4.758053456817379</v>
       </c>
       <c r="H11">
-        <v>0.2635545744196008</v>
+        <v>0.08267913972512275</v>
       </c>
       <c r="I11">
-        <v>0.3610766637362985</v>
+        <v>0.003998366696047029</v>
       </c>
       <c r="J11">
-        <v>0.6662552927625001</v>
+        <v>2.292812668096019</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3589031972680665</v>
       </c>
       <c r="L11">
-        <v>1.759700566220573</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.283658616029086</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.407549962853096</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>3.882957901489434</v>
+      </c>
+      <c r="P11">
+        <v>2.26354749587216</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.8918060818458</v>
+        <v>0.6631245506161179</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1186037000090749</v>
+        <v>0.03680054080450645</v>
       </c>
       <c r="E12">
-        <v>0.3249358162295408</v>
+        <v>0.6633237447422218</v>
       </c>
       <c r="F12">
-        <v>0.4123958395165559</v>
+        <v>4.123586507230954</v>
       </c>
       <c r="G12">
-        <v>0.4360144073664571</v>
+        <v>4.576017733865513</v>
       </c>
       <c r="H12">
-        <v>0.2665608027751176</v>
+        <v>0.1183078747625075</v>
       </c>
       <c r="I12">
-        <v>0.3602965090025165</v>
+        <v>0.003962890288766729</v>
       </c>
       <c r="J12">
-        <v>0.6780663479556921</v>
+        <v>2.199160173642724</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3836364477725738</v>
       </c>
       <c r="L12">
-        <v>1.804027130607949</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.316040243079854</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.434860395690549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>3.413875745801462</v>
+      </c>
+      <c r="P12">
+        <v>2.445334629920524</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.871188794893612</v>
+        <v>0.6769016601328701</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1186926783844555</v>
+        <v>0.02827939377137767</v>
       </c>
       <c r="E13">
-        <v>0.3240141419575124</v>
+        <v>0.8095579084171192</v>
       </c>
       <c r="F13">
-        <v>0.4114079234317103</v>
+        <v>3.858147088148655</v>
       </c>
       <c r="G13">
-        <v>0.4338788984185697</v>
+        <v>4.256589230913676</v>
       </c>
       <c r="H13">
-        <v>0.2659075888421825</v>
+        <v>0.1689794682207406</v>
       </c>
       <c r="I13">
-        <v>0.3604530154403349</v>
+        <v>0.004047089979279939</v>
       </c>
       <c r="J13">
-        <v>0.6755210663144453</v>
+        <v>2.041864532778874</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4058110114813687</v>
       </c>
       <c r="L13">
-        <v>1.794478479444791</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.309064243889296</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.428944408996074</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>2.892710719736044</v>
+      </c>
+      <c r="P13">
+        <v>2.582360099299336</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.803979452238423</v>
+        <v>0.676625513967366</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1189866494930669</v>
+        <v>0.02256845173967648</v>
       </c>
       <c r="E14">
-        <v>0.3210125316973702</v>
+        <v>0.9308015776021179</v>
       </c>
       <c r="F14">
-        <v>0.4082358299735418</v>
+        <v>3.618514201832653</v>
       </c>
       <c r="G14">
-        <v>0.4269544438503488</v>
+        <v>3.974321144212865</v>
       </c>
       <c r="H14">
-        <v>0.2637993132646841</v>
+        <v>0.2141206109088927</v>
       </c>
       <c r="I14">
-        <v>0.36100731579495</v>
+        <v>0.004248312195129778</v>
       </c>
       <c r="J14">
-        <v>0.6672262966648077</v>
+        <v>1.904576624676395</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4208821805022254</v>
       </c>
       <c r="L14">
-        <v>1.763346396253581</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.286321768948341</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.409781495575601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>2.513454361682832</v>
+      </c>
+      <c r="P14">
+        <v>2.660310967174752</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.76283279347922</v>
+        <v>0.6706900183386324</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1191696257424084</v>
+        <v>0.0210843803576779</v>
       </c>
       <c r="E15">
-        <v>0.3191771432964572</v>
+        <v>0.9582919036751179</v>
       </c>
       <c r="F15">
-        <v>0.4063306313133666</v>
+        <v>3.534016647060326</v>
       </c>
       <c r="G15">
-        <v>0.4227432861920732</v>
+        <v>3.876714625113749</v>
       </c>
       <c r="H15">
-        <v>0.2625246596358295</v>
+        <v>0.2249840148642335</v>
       </c>
       <c r="I15">
-        <v>0.3613802715333279</v>
+        <v>0.004451734592009871</v>
       </c>
       <c r="J15">
-        <v>0.6621500299548018</v>
+        <v>1.857831478597149</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4246421145532437</v>
       </c>
       <c r="L15">
-        <v>1.744283132248455</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.272397138377173</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.398142660684499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>2.408889066408904</v>
+      </c>
+      <c r="P15">
+        <v>2.671289569447254</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.527335735021609</v>
+        <v>0.627113216584263</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1202626196831247</v>
+        <v>0.01962050061613851</v>
       </c>
       <c r="E16">
-        <v>0.3087072928919525</v>
+        <v>0.8929280916586677</v>
       </c>
       <c r="F16">
-        <v>0.3959757734169926</v>
+        <v>3.28985777494961</v>
       </c>
       <c r="G16">
-        <v>0.399058911133892</v>
+        <v>3.606362165726068</v>
       </c>
       <c r="H16">
-        <v>0.2554693334311082</v>
+        <v>0.2053615151554453</v>
       </c>
       <c r="I16">
-        <v>0.3640176849276706</v>
+        <v>0.004936993701979198</v>
       </c>
       <c r="J16">
-        <v>0.6331272277791413</v>
+        <v>1.733783084159711</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4156277053782347</v>
       </c>
       <c r="L16">
-        <v>1.635122835113918</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.192682126577367</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.332913921025863</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>2.267751531689768</v>
+      </c>
+      <c r="P16">
+        <v>2.557823256000177</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.38310614864298</v>
+        <v>0.593777031454124</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1209725920742954</v>
+        <v>0.02139268548182827</v>
       </c>
       <c r="E17">
-        <v>0.3023263927056874</v>
+        <v>0.7747963630164847</v>
       </c>
       <c r="F17">
-        <v>0.3901085258258874</v>
+        <v>3.229577557019439</v>
       </c>
       <c r="G17">
-        <v>0.3849122710957431</v>
+        <v>3.548206766773887</v>
       </c>
       <c r="H17">
-        <v>0.2513558853152205</v>
+        <v>0.1645043539773781</v>
       </c>
       <c r="I17">
-        <v>0.3660689415699281</v>
+        <v>0.005229204098382567</v>
       </c>
       <c r="J17">
-        <v>0.6153805266646515</v>
+        <v>1.711290954918525</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4009042876032112</v>
       </c>
       <c r="L17">
-        <v>1.568221651999096</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.14384442521289</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.294157095653702</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>2.354876905170457</v>
+      </c>
+      <c r="P17">
+        <v>2.43039160973882</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.300227569482104</v>
+        <v>0.5690930172393109</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1213953751464985</v>
+        <v>0.02665625296293683</v>
       </c>
       <c r="E18">
-        <v>0.2986713881204679</v>
+        <v>0.6243421787389423</v>
       </c>
       <c r="F18">
-        <v>0.3869054252677131</v>
+        <v>3.319917091227552</v>
       </c>
       <c r="G18">
-        <v>0.3769097183333656</v>
+        <v>3.666099866894683</v>
       </c>
       <c r="H18">
-        <v>0.2490659290307775</v>
+        <v>0.1119566662192213</v>
       </c>
       <c r="I18">
-        <v>0.3674029684769309</v>
+        <v>0.005063560161426395</v>
       </c>
       <c r="J18">
-        <v>0.6051935322084177</v>
+        <v>1.773466050675154</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3784374559943657</v>
       </c>
       <c r="L18">
-        <v>1.529762168605856</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.115775123249989</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.272307870283157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>2.660393741655014</v>
+      </c>
+      <c r="P18">
+        <v>2.273633361310544</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.272178878124237</v>
+        <v>0.5465111938210043</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1215409929459952</v>
+        <v>0.03512140219140747</v>
       </c>
       <c r="E19">
-        <v>0.2974364340193816</v>
+        <v>0.4997855677297096</v>
       </c>
       <c r="F19">
-        <v>0.3858497602978872</v>
+        <v>3.526743194641625</v>
       </c>
       <c r="G19">
-        <v>0.3742226412670675</v>
+        <v>3.920469575430474</v>
       </c>
       <c r="H19">
-        <v>0.2483033690542555</v>
+        <v>0.07069766430090851</v>
       </c>
       <c r="I19">
-        <v>0.3678806644431241</v>
+        <v>0.005120359112652295</v>
       </c>
       <c r="J19">
-        <v>0.6017478261346128</v>
+        <v>1.900520216648459</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3566893356807945</v>
       </c>
       <c r="L19">
-        <v>1.516743603070466</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.106274646061166</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.264984281184979</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>3.151302002789862</v>
+      </c>
+      <c r="P19">
+        <v>2.124762182527689</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.398451296840619</v>
+        <v>0.5429743000727569</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1208955196412091</v>
+        <v>0.05249831282177553</v>
       </c>
       <c r="E20">
-        <v>0.3030040784884989</v>
+        <v>0.4408216617631213</v>
       </c>
       <c r="F20">
-        <v>0.3907151976219581</v>
+        <v>4.062707835581904</v>
       </c>
       <c r="G20">
-        <v>0.3864041695656795</v>
+        <v>4.560363170409914</v>
       </c>
       <c r="H20">
-        <v>0.2517858392131984</v>
+        <v>0.05951439696765659</v>
       </c>
       <c r="I20">
-        <v>0.3658345113145209</v>
+        <v>0.004721972165335764</v>
       </c>
       <c r="J20">
-        <v>0.6172675599437554</v>
+        <v>2.210745583637106</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3290533080961708</v>
       </c>
       <c r="L20">
-        <v>1.575341215525413</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.149041057832463</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.298236568760899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>4.146337288325753</v>
+      </c>
+      <c r="P20">
+        <v>1.970955414631476</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.823716029330683</v>
+        <v>0.6087937718952503</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.118899696084668</v>
+        <v>0.06145706154067909</v>
       </c>
       <c r="E21">
-        <v>0.3218935117998711</v>
+        <v>0.4935918999033468</v>
       </c>
       <c r="F21">
-        <v>0.4091596335775662</v>
+        <v>4.673116312931143</v>
       </c>
       <c r="G21">
-        <v>0.4289819769723806</v>
+        <v>5.25479271516258</v>
       </c>
       <c r="H21">
-        <v>0.2644150617970382</v>
+        <v>0.07725400661390225</v>
       </c>
       <c r="I21">
-        <v>0.360837507663831</v>
+        <v>0.004012136932734833</v>
       </c>
       <c r="J21">
-        <v>0.6696617248056356</v>
+        <v>2.535941564420739</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3320750620781006</v>
       </c>
       <c r="L21">
-        <v>1.772489364040041</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.293000560146012</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.41538935720942</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>4.763946213386816</v>
+      </c>
+      <c r="P21">
+        <v>2.087847831510857</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.102564354160677</v>
+        <v>0.656859383089369</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.117725373357473</v>
+        <v>0.06671847713190004</v>
       </c>
       <c r="E22">
-        <v>0.3343805047794461</v>
+        <v>0.5308377217574911</v>
       </c>
       <c r="F22">
-        <v>0.4228877252106287</v>
+        <v>5.066403887474706</v>
       </c>
       <c r="G22">
-        <v>0.458146103994082</v>
+        <v>5.700514308072172</v>
       </c>
       <c r="H22">
-        <v>0.2734095962747745</v>
+        <v>0.08940171645238504</v>
       </c>
       <c r="I22">
-        <v>0.359054231865187</v>
+        <v>0.003298869121636017</v>
       </c>
       <c r="J22">
-        <v>0.7041043578597197</v>
+        <v>2.744440011259428</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3335324957591688</v>
       </c>
       <c r="L22">
-        <v>1.901597297385024</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.387337471190392</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.496332138479886</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>5.124987106142413</v>
+      </c>
+      <c r="P22">
+        <v>2.165532208995216</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.953643313611849</v>
+        <v>0.6354650433363531</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1183401507938342</v>
+        <v>0.06394134113948979</v>
       </c>
       <c r="E23">
-        <v>0.327702642110701</v>
+        <v>0.5108656074459539</v>
       </c>
       <c r="F23">
-        <v>0.4154003138226017</v>
+        <v>4.856381505252671</v>
       </c>
       <c r="G23">
-        <v>0.4424511605236034</v>
+        <v>5.46259665704622</v>
       </c>
       <c r="H23">
-        <v>0.2685380519731098</v>
+        <v>0.08279302039617331</v>
       </c>
       <c r="I23">
-        <v>0.3598648379792451</v>
+        <v>0.003340258144682196</v>
       </c>
       <c r="J23">
-        <v>0.685702453608414</v>
+        <v>2.633165846578436</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.330595567715303</v>
       </c>
       <c r="L23">
-        <v>1.832662111092816</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.336961794894179</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.452709051295187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.927751298833812</v>
+      </c>
+      <c r="P23">
+        <v>2.115927813902232</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.391513630161569</v>
+        <v>0.5466448040457976</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1209303185971677</v>
+        <v>0.05368856417009482</v>
       </c>
       <c r="E24">
-        <v>0.3026976548966545</v>
+        <v>0.4394022302623215</v>
       </c>
       <c r="F24">
-        <v>0.3904403931873617</v>
+        <v>4.083232287106256</v>
       </c>
       <c r="G24">
-        <v>0.385729277202671</v>
+        <v>4.586367914178311</v>
       </c>
       <c r="H24">
-        <v>0.2515912243891165</v>
+        <v>0.06009688125127166</v>
       </c>
       <c r="I24">
-        <v>0.36594001646327</v>
+        <v>0.004177353443050258</v>
       </c>
       <c r="J24">
-        <v>0.6164143831142894</v>
+        <v>2.223794136865592</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3236663751323796</v>
       </c>
       <c r="L24">
-        <v>1.572122452682265</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.146691635565304</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.296390896252603</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>4.196911668382484</v>
+      </c>
+      <c r="P24">
+        <v>1.942618530453217</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.788058435039432</v>
+        <v>0.4491782802662811</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1242749111960606</v>
+        <v>0.04318208300021809</v>
       </c>
       <c r="E25">
-        <v>0.276300395117282</v>
+        <v>0.369098916956605</v>
       </c>
       <c r="F25">
-        <v>0.3700031016831531</v>
+        <v>3.28883641572105</v>
       </c>
       <c r="G25">
-        <v>0.3296053734491835</v>
+        <v>3.685496131045056</v>
       </c>
       <c r="H25">
-        <v>0.2361843337147604</v>
+        <v>0.03954302216722505</v>
       </c>
       <c r="I25">
-        <v>0.3783327336804341</v>
+        <v>0.005406107287579509</v>
       </c>
       <c r="J25">
-        <v>0.5424486583355161</v>
+        <v>1.803945734734128</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3176434450706971</v>
       </c>
       <c r="L25">
-        <v>1.291825495999689</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9422191603862018</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.144481258473121</v>
+        <v>3.423930958332122</v>
+      </c>
+      <c r="P25">
+        <v>1.758378088122498</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3862279631658083</v>
+        <v>0.4631220001055141</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03588606110555048</v>
+        <v>0.03630887762944468</v>
       </c>
       <c r="E2">
-        <v>0.3213134157410309</v>
+        <v>0.2836395386270363</v>
       </c>
       <c r="F2">
-        <v>2.730589687273095</v>
+        <v>2.720757981810237</v>
       </c>
       <c r="G2">
-        <v>3.052118517939618</v>
+        <v>3.068976850995142</v>
       </c>
       <c r="H2">
-        <v>0.026917449761648</v>
+        <v>0.02382019151445003</v>
       </c>
       <c r="I2">
-        <v>0.005768308028710756</v>
+        <v>0.003195173515887717</v>
       </c>
       <c r="J2">
-        <v>1.509729988974442</v>
+        <v>1.559498142428311</v>
       </c>
       <c r="K2">
-        <v>0.3095639435505539</v>
+        <v>0.255878968615189</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1088488438830382</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08801190798497593</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.854002756471985</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.606293075161204</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>2.768841005207733</v>
+      </c>
+      <c r="R2">
+        <v>1.453763981639895</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3368854620523223</v>
+        <v>0.4091633454392252</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03101538830286188</v>
+        <v>0.03163934449423778</v>
       </c>
       <c r="E3">
-        <v>0.2902534591452062</v>
+        <v>0.2573894200794435</v>
       </c>
       <c r="F3">
-        <v>2.361719748301439</v>
+        <v>2.360551774765241</v>
       </c>
       <c r="G3">
-        <v>2.63313538685091</v>
+        <v>2.647450326514615</v>
       </c>
       <c r="H3">
-        <v>0.01958714209138601</v>
+        <v>0.0172429082454989</v>
       </c>
       <c r="I3">
-        <v>0.006570287782829531</v>
+        <v>0.003651737511307207</v>
       </c>
       <c r="J3">
-        <v>1.315555647893518</v>
+        <v>1.374968859664222</v>
       </c>
       <c r="K3">
-        <v>0.3076935776055798</v>
+        <v>0.2547593514462605</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1063679116808451</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.09154895706217658</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.477254979937129</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.515715226664184</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.399911985031636</v>
+      </c>
+      <c r="R3">
+        <v>1.369338142967109</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3060371068947205</v>
+        <v>0.3752489575025066</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02807511811956687</v>
+        <v>0.02879926523716136</v>
       </c>
       <c r="E4">
-        <v>0.2716765871798419</v>
+        <v>0.2416329218815019</v>
       </c>
       <c r="F4">
-        <v>2.139424938567203</v>
+        <v>2.14284033967381</v>
       </c>
       <c r="G4">
-        <v>2.380463090594191</v>
+        <v>2.393189180272685</v>
       </c>
       <c r="H4">
-        <v>0.01558267328076979</v>
+        <v>0.01365446383288027</v>
       </c>
       <c r="I4">
-        <v>0.007135463771506423</v>
+        <v>0.003994340221206372</v>
       </c>
       <c r="J4">
-        <v>1.198703522881431</v>
+        <v>1.262818022831937</v>
       </c>
       <c r="K4">
-        <v>0.3069897854795478</v>
+        <v>0.2545206945782716</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1054888293310965</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09391644970099655</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.247491192592008</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.46115541533355</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>2.174870514181478</v>
+      </c>
+      <c r="R4">
+        <v>1.318806641270058</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2922859292326905</v>
+        <v>0.3601910843748755</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02687540837715829</v>
+        <v>0.02763629569141557</v>
       </c>
       <c r="E5">
-        <v>0.264174525257884</v>
+        <v>0.2352520380773573</v>
       </c>
       <c r="F5">
-        <v>2.049474531231297</v>
+        <v>2.05462477811669</v>
       </c>
       <c r="G5">
-        <v>2.278153697936943</v>
+        <v>2.290261343801774</v>
       </c>
       <c r="H5">
-        <v>0.01406254032760806</v>
+        <v>0.01229372056739392</v>
       </c>
       <c r="I5">
-        <v>0.007465963403503473</v>
+        <v>0.004240758633092589</v>
       </c>
       <c r="J5">
-        <v>1.151436856416694</v>
+        <v>1.217211015177611</v>
       </c>
       <c r="K5">
-        <v>0.3072937369678606</v>
+        <v>0.254847549595361</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1053203456492069</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09513341371562944</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.155190008022217</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.441067741375321</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>2.08437009182299</v>
+      </c>
+      <c r="R5">
+        <v>1.300067931257743</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2887168219357932</v>
+        <v>0.3564029513982803</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02666214650199095</v>
+        <v>0.02743007819490373</v>
       </c>
       <c r="E6">
-        <v>0.2629025405709955</v>
+        <v>0.2341629611958922</v>
       </c>
       <c r="F6">
-        <v>2.03426539711505</v>
+        <v>2.039727012502397</v>
       </c>
       <c r="G6">
-        <v>2.260825621622729</v>
+        <v>2.272870363478319</v>
       </c>
       <c r="H6">
-        <v>0.01381755602650431</v>
+        <v>0.01207439063379706</v>
       </c>
       <c r="I6">
-        <v>0.007629981219312576</v>
+        <v>0.004403405265214211</v>
       </c>
       <c r="J6">
-        <v>1.143418359299346</v>
+        <v>1.209469878783182</v>
       </c>
       <c r="K6">
-        <v>0.3079434837451238</v>
+        <v>0.2552953603491233</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1053388571046483</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09558777220371439</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.14111235914153</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.440060689148567</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>2.070452219766295</v>
+      </c>
+      <c r="R6">
+        <v>1.298852629957054</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3023495472261715</v>
+        <v>0.3716814482894222</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02801890215751257</v>
+        <v>0.02849125119423945</v>
       </c>
       <c r="E7">
-        <v>0.2714893220362828</v>
+        <v>0.2413507583876289</v>
       </c>
       <c r="F7">
-        <v>2.137324460029234</v>
+        <v>2.135227736416581</v>
       </c>
       <c r="G7">
-        <v>2.378001485422431</v>
+        <v>2.396026087377237</v>
       </c>
       <c r="H7">
-        <v>0.01556512926317766</v>
+        <v>0.01361881329182479</v>
       </c>
       <c r="I7">
-        <v>0.007419712922021482</v>
+        <v>0.00431095293891115</v>
       </c>
       <c r="J7">
-        <v>1.197520847170921</v>
+        <v>1.24556574752657</v>
       </c>
       <c r="K7">
-        <v>0.3086205673593909</v>
+        <v>0.2556519867458977</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1056268725589327</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09462563158160719</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.249613974125126</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.46723389222177</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>2.173746017899887</v>
+      </c>
+      <c r="R7">
+        <v>1.324219234096333</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3646593076049385</v>
+        <v>0.4404788026996584</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03414158857423644</v>
+        <v>0.03378759021190092</v>
       </c>
       <c r="E8">
-        <v>0.3103644907656511</v>
+        <v>0.2740273969473921</v>
       </c>
       <c r="F8">
-        <v>2.601259720007079</v>
+        <v>2.5757770683486</v>
       </c>
       <c r="G8">
-        <v>2.905155852031925</v>
+        <v>2.938741421888153</v>
       </c>
       <c r="H8">
-        <v>0.02428418825596013</v>
+        <v>0.02137750851886344</v>
       </c>
       <c r="I8">
-        <v>0.00637021792188186</v>
+        <v>0.003724558089105656</v>
       </c>
       <c r="J8">
-        <v>1.441512555312499</v>
+        <v>1.441003835052385</v>
       </c>
       <c r="K8">
-        <v>0.3110294932018789</v>
+        <v>0.2570979409530914</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.10822150543666</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.09008722625628351</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.728217773934844</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.583406118142634</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.635510765354852</v>
+      </c>
+      <c r="R8">
+        <v>1.433128971852454</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4886037566668335</v>
+        <v>0.5747756468465184</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04673440345461444</v>
+        <v>0.04544924036682119</v>
       </c>
       <c r="E9">
-        <v>0.392250111807587</v>
+        <v>0.3427173947643727</v>
       </c>
       <c r="F9">
-        <v>3.553694195812852</v>
+        <v>3.495292135299252</v>
       </c>
       <c r="G9">
-        <v>3.986075323638062</v>
+        <v>4.030614943620861</v>
       </c>
       <c r="H9">
-        <v>0.04600993565798683</v>
+        <v>0.04082465979073113</v>
       </c>
       <c r="I9">
-        <v>0.004482014550919899</v>
+        <v>0.002598432098195325</v>
       </c>
       <c r="J9">
-        <v>1.943961178141848</v>
+        <v>1.894506072628303</v>
       </c>
       <c r="K9">
-        <v>0.3163656776444483</v>
+        <v>0.2612989347368355</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.117916179472914</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08159331604160336</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.676523335105315</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1.808106754937825</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>3.560807696413292</v>
+      </c>
+      <c r="R9">
+        <v>1.645806637691976</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5769971786317853</v>
+        <v>0.6716505256349024</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.05486187931042252</v>
+        <v>0.05121801372082757</v>
       </c>
       <c r="E10">
-        <v>0.4592432365611856</v>
+        <v>0.3972117332912211</v>
       </c>
       <c r="F10">
-        <v>4.253890719943115</v>
+        <v>4.131134539744551</v>
       </c>
       <c r="G10">
-        <v>4.776545932900831</v>
+        <v>4.860222804163413</v>
       </c>
       <c r="H10">
-        <v>0.06478392491566698</v>
+        <v>0.05737323808581962</v>
       </c>
       <c r="I10">
-        <v>0.003665538484181496</v>
+        <v>0.002293228118801949</v>
       </c>
       <c r="J10">
-        <v>2.311536504235562</v>
+        <v>2.120906145934924</v>
       </c>
       <c r="K10">
-        <v>0.3261069509871604</v>
+        <v>0.2695159009058266</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1292280889080821</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07737305801709127</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.305309389496585</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1.99979559531991</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>4.154092891101385</v>
+      </c>
+      <c r="R10">
+        <v>1.829730306473579</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6300622604445323</v>
+        <v>0.7404472085025589</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04543884740166959</v>
+        <v>0.03904945780929125</v>
       </c>
       <c r="E11">
-        <v>0.545103217895317</v>
+        <v>0.4662046013174219</v>
       </c>
       <c r="F11">
-        <v>4.263970632391761</v>
+        <v>4.061968013869347</v>
       </c>
       <c r="G11">
-        <v>4.758053456817379</v>
+        <v>4.914764968760608</v>
       </c>
       <c r="H11">
-        <v>0.08267913972512275</v>
+        <v>0.07459708804971044</v>
       </c>
       <c r="I11">
-        <v>0.003998366696047029</v>
+        <v>0.002843105119739064</v>
       </c>
       <c r="J11">
-        <v>2.292812668096019</v>
+        <v>1.892963899397472</v>
       </c>
       <c r="K11">
-        <v>0.3589031972680665</v>
+        <v>0.2936745332652926</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.142775926955288</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08271868777455893</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.882957901489434</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>2.26354749587216</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>3.696580885558589</v>
+      </c>
+      <c r="R11">
+        <v>2.068462765453233</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6631245506161179</v>
+        <v>0.7850068674492547</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03680054080450645</v>
+        <v>0.02982348206192853</v>
       </c>
       <c r="E12">
-        <v>0.6633237447422218</v>
+        <v>0.5702186796717399</v>
       </c>
       <c r="F12">
-        <v>4.123586507230954</v>
+        <v>3.891500836763385</v>
       </c>
       <c r="G12">
-        <v>4.576017733865513</v>
+        <v>4.765046313397704</v>
       </c>
       <c r="H12">
-        <v>0.1183078747625075</v>
+        <v>0.1102104228652721</v>
       </c>
       <c r="I12">
-        <v>0.003962890288766729</v>
+        <v>0.002824198678512246</v>
       </c>
       <c r="J12">
-        <v>2.199160173642724</v>
+        <v>1.718248794852997</v>
       </c>
       <c r="K12">
-        <v>0.3836364477725738</v>
+        <v>0.311289697307366</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1514210461535477</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.08760245514535114</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.413875745801462</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>2.445334629920524</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>3.220179521997323</v>
+      </c>
+      <c r="R12">
+        <v>2.228700596106592</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6769016601328701</v>
+        <v>0.8075139083617273</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02827939377137767</v>
+        <v>0.02239888431107318</v>
       </c>
       <c r="E13">
-        <v>0.8095579084171192</v>
+        <v>0.7074031502555869</v>
       </c>
       <c r="F13">
-        <v>3.858147088148655</v>
+        <v>3.645036454187846</v>
       </c>
       <c r="G13">
-        <v>4.256589230913676</v>
+        <v>4.436214203516272</v>
       </c>
       <c r="H13">
-        <v>0.1689794682207406</v>
+        <v>0.1614356447351071</v>
       </c>
       <c r="I13">
-        <v>0.004047089979279939</v>
+        <v>0.002837629511298623</v>
       </c>
       <c r="J13">
-        <v>2.041864532778874</v>
+        <v>1.601927107884904</v>
       </c>
       <c r="K13">
-        <v>0.4058110114813687</v>
+        <v>0.3260668130864843</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1567303074275834</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09319210836009617</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.892710719736044</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>2.582360099299336</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>2.71569072762577</v>
+      </c>
+      <c r="R13">
+        <v>2.341755875030486</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.676625513967366</v>
+        <v>0.8121371736821459</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02256845173967648</v>
+        <v>0.01794984162752655</v>
       </c>
       <c r="E14">
-        <v>0.9308015776021179</v>
+        <v>0.8258204088211443</v>
       </c>
       <c r="F14">
-        <v>3.618514201832653</v>
+        <v>3.438477068277393</v>
       </c>
       <c r="G14">
-        <v>3.974321144212865</v>
+        <v>4.130414298923142</v>
       </c>
       <c r="H14">
-        <v>0.2141206109088927</v>
+        <v>0.2071737771285314</v>
       </c>
       <c r="I14">
-        <v>0.004248312195129778</v>
+        <v>0.002963537704718355</v>
       </c>
       <c r="J14">
-        <v>1.904576624676395</v>
+        <v>1.542183086092706</v>
       </c>
       <c r="K14">
-        <v>0.4208821805022254</v>
+        <v>0.335563477915116</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1589896736621412</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.09770301651845159</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.513454361682832</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>2.660310967174752</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>2.356618949810823</v>
+      </c>
+      <c r="R14">
+        <v>2.401175158001877</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6706900183386324</v>
+        <v>0.8067605161379845</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0210843803576779</v>
+        <v>0.01698554888022485</v>
       </c>
       <c r="E15">
-        <v>0.9582919036751179</v>
+        <v>0.8544179619138959</v>
       </c>
       <c r="F15">
-        <v>3.534016647060326</v>
+        <v>3.370557907343056</v>
       </c>
       <c r="G15">
-        <v>3.876714625113749</v>
+        <v>4.020003533995634</v>
       </c>
       <c r="H15">
-        <v>0.2249840148642335</v>
+        <v>0.2182995957971343</v>
       </c>
       <c r="I15">
-        <v>0.004451734592009871</v>
+        <v>0.003148425313002079</v>
       </c>
       <c r="J15">
-        <v>1.857831478597149</v>
+        <v>1.535383304580137</v>
       </c>
       <c r="K15">
-        <v>0.4246421145532437</v>
+        <v>0.3377525277732971</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1589592955200452</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0991880640147329</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.408889066408904</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>2.671289569447254</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>2.260379452560613</v>
+      </c>
+      <c r="R15">
+        <v>2.406917306570762</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.627113216584263</v>
+        <v>0.7566540104897967</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01962050061613851</v>
+        <v>0.01752440590881932</v>
       </c>
       <c r="E16">
-        <v>0.8929280916586677</v>
+        <v>0.8045139663581722</v>
       </c>
       <c r="F16">
-        <v>3.28985777494961</v>
+        <v>3.198478630889213</v>
       </c>
       <c r="G16">
-        <v>3.606362165726068</v>
+        <v>3.690420311772016</v>
       </c>
       <c r="H16">
-        <v>0.2053615151554453</v>
+        <v>0.1998044349351034</v>
       </c>
       <c r="I16">
-        <v>0.004936993701979198</v>
+        <v>0.003457988415183522</v>
       </c>
       <c r="J16">
-        <v>1.733783084159711</v>
+        <v>1.591294801893781</v>
       </c>
       <c r="K16">
-        <v>0.4156277053782347</v>
+        <v>0.3296635801958239</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1510418088108985</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1002145029974493</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.267751531689768</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>2.557823256000177</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>2.149839377300538</v>
+      </c>
+      <c r="R16">
+        <v>2.294560414647407</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.593777031454124</v>
+        <v>0.7158813523020342</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02139268548182827</v>
+        <v>0.02017276862135731</v>
       </c>
       <c r="E17">
-        <v>0.7747963630164847</v>
+        <v>0.6969298020062809</v>
       </c>
       <c r="F17">
-        <v>3.229577557019439</v>
+        <v>3.168489736709148</v>
       </c>
       <c r="G17">
-        <v>3.548206766773887</v>
+        <v>3.606183034456421</v>
       </c>
       <c r="H17">
-        <v>0.1645043539773781</v>
+        <v>0.1594443286779637</v>
       </c>
       <c r="I17">
-        <v>0.005229204098382567</v>
+        <v>0.003656385020472719</v>
       </c>
       <c r="J17">
-        <v>1.711290954918525</v>
+        <v>1.647261067835188</v>
       </c>
       <c r="K17">
-        <v>0.4009042876032112</v>
+        <v>0.3188664494776496</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1442337920523258</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.09857918568741297</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.354876905170457</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>2.43039160973882</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>2.247957748800829</v>
+      </c>
+      <c r="R17">
+        <v>2.179327085414229</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5690930172393109</v>
+        <v>0.6820323781945774</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02665625296293683</v>
+        <v>0.02581679349908228</v>
       </c>
       <c r="E18">
-        <v>0.6243421787389423</v>
+        <v>0.5552603621175223</v>
       </c>
       <c r="F18">
-        <v>3.319917091227552</v>
+        <v>3.269811487035838</v>
       </c>
       <c r="G18">
-        <v>3.666099866894683</v>
+        <v>3.711449874301621</v>
       </c>
       <c r="H18">
-        <v>0.1119566662192213</v>
+        <v>0.1069826491814609</v>
       </c>
       <c r="I18">
-        <v>0.005063560161426395</v>
+        <v>0.003417818537654327</v>
       </c>
       <c r="J18">
-        <v>1.773466050675154</v>
+        <v>1.742070525462509</v>
       </c>
       <c r="K18">
-        <v>0.3784374559943657</v>
+        <v>0.3033779021533434</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1371464238003774</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09395524572922653</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.660393741655014</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>2.273633361310544</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>2.555126515015857</v>
+      </c>
+      <c r="R18">
+        <v>2.044408640532708</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5465111938210043</v>
+        <v>0.6498360697417525</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03512140219140747</v>
+        <v>0.03432144573481821</v>
       </c>
       <c r="E19">
-        <v>0.4997855677297096</v>
+        <v>0.4375741083155908</v>
       </c>
       <c r="F19">
-        <v>3.526743194641625</v>
+        <v>3.476199366923709</v>
       </c>
       <c r="G19">
-        <v>3.920469575430474</v>
+        <v>3.96051760426991</v>
       </c>
       <c r="H19">
-        <v>0.07069766430090851</v>
+        <v>0.06543471893506592</v>
       </c>
       <c r="I19">
-        <v>0.005120359112652295</v>
+        <v>0.003529019143742929</v>
       </c>
       <c r="J19">
-        <v>1.900520216648459</v>
+        <v>1.875496228179742</v>
       </c>
       <c r="K19">
-        <v>0.3566893356807945</v>
+        <v>0.2889122132487145</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1315695113655622</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.08872419724663416</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.151302002789862</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>2.124762182527689</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>3.041682931437549</v>
+      </c>
+      <c r="R19">
+        <v>1.919197061992179</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5429743000727569</v>
+        <v>0.6354040462973671</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05249831282177553</v>
+        <v>0.05043844588284685</v>
       </c>
       <c r="E20">
-        <v>0.4408216617631213</v>
+        <v>0.3826408759491713</v>
       </c>
       <c r="F20">
-        <v>4.062707835581904</v>
+        <v>3.978993930943602</v>
       </c>
       <c r="G20">
-        <v>4.560363170409914</v>
+        <v>4.614816520792488</v>
       </c>
       <c r="H20">
-        <v>0.05951439696765659</v>
+        <v>0.05285433762920411</v>
       </c>
       <c r="I20">
-        <v>0.004721972165335764</v>
+        <v>0.003355313796512327</v>
       </c>
       <c r="J20">
-        <v>2.210745583637106</v>
+        <v>2.117330061858581</v>
       </c>
       <c r="K20">
-        <v>0.3290533080961708</v>
+        <v>0.27112479031668</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.127428825846799</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07994779337845515</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.146337288325753</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1.970955414631476</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>4.014390476523147</v>
+      </c>
+      <c r="R20">
+        <v>1.797362390504958</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6087937718952503</v>
+        <v>0.7078718789925347</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.06145706154067909</v>
+        <v>0.05247535696394579</v>
       </c>
       <c r="E21">
-        <v>0.4935918999033468</v>
+        <v>0.4243421092240256</v>
       </c>
       <c r="F21">
-        <v>4.673116312931143</v>
+        <v>4.422091032617431</v>
       </c>
       <c r="G21">
-        <v>5.25479271516258</v>
+        <v>5.442823211344773</v>
       </c>
       <c r="H21">
-        <v>0.07725400661390225</v>
+        <v>0.06779197149508231</v>
       </c>
       <c r="I21">
-        <v>0.004012136932734833</v>
+        <v>0.003015035353324258</v>
       </c>
       <c r="J21">
-        <v>2.535941564420739</v>
+        <v>2.022501841947872</v>
       </c>
       <c r="K21">
-        <v>0.3320750620781006</v>
+        <v>0.2759865206112551</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1365064821522814</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.07599359702352615</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.763946213386816</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>2.087847831510857</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>4.543466088214913</v>
+      </c>
+      <c r="R21">
+        <v>1.924554097874278</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.656859383089369</v>
+        <v>0.7607620742352879</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06671847713190004</v>
+        <v>0.05281040609865784</v>
       </c>
       <c r="E22">
-        <v>0.5308377217574911</v>
+        <v>0.4536889605264207</v>
       </c>
       <c r="F22">
-        <v>5.066403887474706</v>
+        <v>4.692899665803708</v>
       </c>
       <c r="G22">
-        <v>5.700514308072172</v>
+        <v>5.987284791311822</v>
       </c>
       <c r="H22">
-        <v>0.08940171645238504</v>
+        <v>0.07787188377017173</v>
       </c>
       <c r="I22">
-        <v>0.003298869121636017</v>
+        <v>0.002462766764636193</v>
       </c>
       <c r="J22">
-        <v>2.744440011259428</v>
+        <v>1.937407694282427</v>
       </c>
       <c r="K22">
-        <v>0.3335324957591688</v>
+        <v>0.2789154762496118</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1427287650459697</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.07336142559408465</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.124987106142413</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>2.165532208995216</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>4.840764747038577</v>
+      </c>
+      <c r="R22">
+        <v>2.010229889116459</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6354650433363531</v>
+        <v>0.7363409798332157</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.06394134113948979</v>
+        <v>0.05332684754142036</v>
       </c>
       <c r="E23">
-        <v>0.5108656074459539</v>
+        <v>0.4381630703634665</v>
       </c>
       <c r="F23">
-        <v>4.856381505252671</v>
+        <v>4.564316200693042</v>
       </c>
       <c r="G23">
-        <v>5.46259665704622</v>
+        <v>5.681401667079115</v>
       </c>
       <c r="H23">
-        <v>0.08279302039617331</v>
+        <v>0.07249316689904006</v>
       </c>
       <c r="I23">
-        <v>0.003340258144682196</v>
+        <v>0.002363425691846111</v>
       </c>
       <c r="J23">
-        <v>2.633165846578436</v>
+        <v>2.022883235954879</v>
       </c>
       <c r="K23">
-        <v>0.330595567715303</v>
+        <v>0.2755194268124477</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1386459776491336</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.07412746168887452</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.927751298833812</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>2.115927813902232</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>4.68652339253434</v>
+      </c>
+      <c r="R23">
+        <v>1.956018800038521</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5466448040457976</v>
+        <v>0.6378595265054798</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05368856417009482</v>
+        <v>0.05164872874509285</v>
       </c>
       <c r="E24">
-        <v>0.4394022302623215</v>
+        <v>0.3818661304688149</v>
       </c>
       <c r="F24">
-        <v>4.083232287106256</v>
+        <v>4.000159806034588</v>
       </c>
       <c r="G24">
-        <v>4.586367914178311</v>
+        <v>4.639237334222742</v>
       </c>
       <c r="H24">
-        <v>0.06009688125127166</v>
+        <v>0.05339942177373569</v>
       </c>
       <c r="I24">
-        <v>0.004177353443050258</v>
+        <v>0.002725499345504367</v>
       </c>
       <c r="J24">
-        <v>2.223794136865592</v>
+        <v>2.133309161376104</v>
       </c>
       <c r="K24">
-        <v>0.3236663751323796</v>
+        <v>0.2672640616813489</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.125937213833641</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07855730818439888</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.196911668382484</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1.942618530453217</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>4.065769169341351</v>
+      </c>
+      <c r="R24">
+        <v>1.773213230960692</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4491782802662811</v>
+        <v>0.5327141591089912</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04318208300021809</v>
+        <v>0.04255810998715504</v>
       </c>
       <c r="E25">
-        <v>0.369098916956605</v>
+        <v>0.3234965538562831</v>
       </c>
       <c r="F25">
-        <v>3.28883641572105</v>
+        <v>3.248768346598922</v>
       </c>
       <c r="G25">
-        <v>3.685496131045056</v>
+        <v>3.719778911572149</v>
       </c>
       <c r="H25">
-        <v>0.03954302216722505</v>
+        <v>0.03507791862615361</v>
       </c>
       <c r="I25">
-        <v>0.005406107287579509</v>
+        <v>0.003395013229479105</v>
       </c>
       <c r="J25">
-        <v>1.803945734734128</v>
+        <v>1.79276327258637</v>
       </c>
       <c r="K25">
-        <v>0.3176434450706971</v>
+        <v>0.2619129939589087</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1153902573987136</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08466869691789825</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.423930958332122</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1.758378088122498</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>3.318229532259267</v>
+      </c>
+      <c r="R25">
+        <v>1.596368404379177</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
